--- a/example_output/csv_data/ExtremeValues_points_Wind.xlsx
+++ b/example_output/csv_data/ExtremeValues_points_Wind.xlsx
@@ -447,10 +447,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>26.67421995228806</v>
+        <v>26.72447322687147</v>
       </c>
       <c r="F2">
-        <v>28.76650059612151</v>
+        <v>28.89040408805812</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -470,10 +470,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>27.44276504592227</v>
+        <v>27.40553530888782</v>
       </c>
       <c r="F3">
-        <v>29.24070263319933</v>
+        <v>29.33261820918871</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -493,10 +493,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>27.9568093781866</v>
+        <v>27.95244848980535</v>
       </c>
       <c r="F4">
-        <v>29.50125401884659</v>
+        <v>29.63724373206233</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -516,10 +516,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>28.27154632609399</v>
+        <v>28.29069067128438</v>
       </c>
       <c r="F5">
-        <v>29.74436382579519</v>
+        <v>29.84825023239437</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -539,10 +539,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>28.53223919124096</v>
+        <v>28.53834591620132</v>
       </c>
       <c r="F6">
-        <v>29.94396155725985</v>
+        <v>30.05952066843187</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -562,10 +562,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>28.7492357893828</v>
+        <v>28.73223742090588</v>
       </c>
       <c r="F7">
-        <v>30.14792760542119</v>
+        <v>30.1992110317326</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -585,10 +585,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>28.98015101196155</v>
+        <v>28.89753195219762</v>
       </c>
       <c r="F8">
-        <v>30.34143731215672</v>
+        <v>30.33965636907318</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -608,10 +608,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>29.13444429468733</v>
+        <v>29.05813790788621</v>
       </c>
       <c r="F9">
-        <v>30.52879656722708</v>
+        <v>30.58279378345978</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -631,10 +631,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>29.33116768211092</v>
+        <v>29.24912142526178</v>
       </c>
       <c r="F10">
-        <v>30.70092676961016</v>
+        <v>30.7260293466874</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -654,10 +654,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>29.4982421740849</v>
+        <v>29.37760938308209</v>
       </c>
       <c r="F11">
-        <v>30.88064760271684</v>
+        <v>30.91584753240569</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -677,10 +677,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>29.61427549196149</v>
+        <v>29.5395707252206</v>
       </c>
       <c r="F12">
-        <v>31.02855379522289</v>
+        <v>31.07807639210364</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -700,10 +700,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>29.76424858316904</v>
+        <v>29.70696632643192</v>
       </c>
       <c r="F13">
-        <v>31.19035149839234</v>
+        <v>31.2517130499842</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -723,10 +723,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>29.89063309754388</v>
+        <v>29.82053362158656</v>
       </c>
       <c r="F14">
-        <v>31.33541032052139</v>
+        <v>31.36651103596493</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -746,10 +746,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>30.07070562807298</v>
+        <v>30.0032482513955</v>
       </c>
       <c r="F15">
-        <v>31.4950221578477</v>
+        <v>31.58615475567023</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -769,10 +769,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>30.21323921774347</v>
+        <v>30.1607042167077</v>
       </c>
       <c r="F16">
-        <v>31.63615156555813</v>
+        <v>31.72307814474293</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -792,10 +792,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>30.33542465502563</v>
+        <v>30.27929881169625</v>
       </c>
       <c r="F17">
-        <v>31.81676434010535</v>
+        <v>31.90241491127237</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -815,10 +815,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>30.49457202953178</v>
+        <v>30.46803028261765</v>
       </c>
       <c r="F18">
-        <v>31.96839399718874</v>
+        <v>32.0216098612372</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -838,10 +838,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>30.60443213921238</v>
+        <v>30.60278596255339</v>
       </c>
       <c r="F19">
-        <v>32.10305761064325</v>
+        <v>32.22998102497365</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -861,10 +861,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>30.72966339143558</v>
+        <v>30.73050148465621</v>
       </c>
       <c r="F20">
-        <v>32.26873699850785</v>
+        <v>32.34069199319256</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -884,10 +884,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>30.86080232927396</v>
+        <v>30.87158570119302</v>
       </c>
       <c r="F21">
-        <v>32.42216611520908</v>
+        <v>32.49077538072027</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -907,10 +907,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>30.98076156357794</v>
+        <v>30.99142599236901</v>
       </c>
       <c r="F22">
-        <v>32.56649712697019</v>
+        <v>32.62382049713093</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -930,10 +930,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>31.12381760526081</v>
+        <v>31.15207149473252</v>
       </c>
       <c r="F23">
-        <v>32.76403494945222</v>
+        <v>32.80926869892403</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -953,10 +953,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>31.2501736127089</v>
+        <v>31.24198091573083</v>
       </c>
       <c r="F24">
-        <v>32.94036555460593</v>
+        <v>32.98133833058303</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -976,10 +976,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>31.39175025515172</v>
+        <v>31.43416273202067</v>
       </c>
       <c r="F25">
-        <v>33.09501040510449</v>
+        <v>33.18948060802862</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -999,10 +999,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>31.51467913588277</v>
+        <v>31.54484920719258</v>
       </c>
       <c r="F26">
-        <v>33.2984010848259</v>
+        <v>33.38150090677865</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -1022,10 +1022,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>31.62821398795953</v>
+        <v>31.67345129757531</v>
       </c>
       <c r="F27">
-        <v>33.45315387760967</v>
+        <v>33.49587499217668</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -1045,10 +1045,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>31.82000038342056</v>
+        <v>31.85129694275752</v>
       </c>
       <c r="F28">
-        <v>33.65337569637015</v>
+        <v>33.75156048692568</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -1068,10 +1068,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>31.98674287382351</v>
+        <v>32.02259448384094</v>
       </c>
       <c r="F29">
-        <v>33.84329240153243</v>
+        <v>33.94647941740498</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -1091,10 +1091,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>32.12647841558678</v>
+        <v>32.15327064182851</v>
       </c>
       <c r="F30">
-        <v>34.06463186678086</v>
+        <v>34.19078064358367</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -1114,10 +1114,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>32.27907246708315</v>
+        <v>32.28435622151336</v>
       </c>
       <c r="F31">
-        <v>34.27983254467509</v>
+        <v>34.38036784944301</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -1137,10 +1137,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>32.45795158998013</v>
+        <v>32.50180145485999</v>
       </c>
       <c r="F32">
-        <v>34.62651462282503</v>
+        <v>34.70736852451406</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -1160,10 +1160,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>32.61735039861048</v>
+        <v>32.70672360364651</v>
       </c>
       <c r="F33">
-        <v>34.84565040378819</v>
+        <v>34.95123029324229</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -1183,10 +1183,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>32.85009887263109</v>
+        <v>32.89298952938885</v>
       </c>
       <c r="F34">
-        <v>35.09844686434595</v>
+        <v>35.24420213609539</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -1206,10 +1206,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>32.997925163099</v>
+        <v>33.07796395130946</v>
       </c>
       <c r="F35">
-        <v>35.37765353608675</v>
+        <v>35.45585972292285</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -1229,10 +1229,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>33.19637679307449</v>
+        <v>33.20171963288372</v>
       </c>
       <c r="F36">
-        <v>35.63934512337465</v>
+        <v>35.7803071712265</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -1252,10 +1252,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>33.39929433255122</v>
+        <v>33.47367288573818</v>
       </c>
       <c r="F37">
-        <v>35.97752481800749</v>
+        <v>36.27346782132941</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -1275,10 +1275,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>33.61733739862218</v>
+        <v>33.85255335949913</v>
       </c>
       <c r="F38">
-        <v>36.44636223245984</v>
+        <v>36.52784558588095</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -1298,10 +1298,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>33.90955729750021</v>
+        <v>34.13212741513323</v>
       </c>
       <c r="F39">
-        <v>36.92453215174434</v>
+        <v>37.01659637533553</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -1321,10 +1321,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>34.30942290238357</v>
+        <v>34.47540606861848</v>
       </c>
       <c r="F40">
-        <v>37.49357990848362</v>
+        <v>37.47567951084993</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -1344,10 +1344,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>34.6651178999401</v>
+        <v>34.68930487039761</v>
       </c>
       <c r="F41">
-        <v>38.21058536820048</v>
+        <v>38.14577668559383</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -1367,10 +1367,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>34.98017717346544</v>
+        <v>35.16066731661534</v>
       </c>
       <c r="F42">
-        <v>39.05197196870076</v>
+        <v>39.09260002889188</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -1390,10 +1390,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>35.48489770878994</v>
+        <v>35.62980523359426</v>
       </c>
       <c r="F43">
-        <v>40.44185897877692</v>
+        <v>40.34485725569446</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -1413,10 +1413,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>36.15161206886391</v>
+        <v>36.34095870789336</v>
       </c>
       <c r="F44">
-        <v>42.50376596856126</v>
+        <v>42.41341276341456</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -1436,10 +1436,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>37.40408636243545</v>
+        <v>37.4305102769539</v>
       </c>
       <c r="F45">
-        <v>46.78990155911752</v>
+        <v>47.7248183582546</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -1492,10 +1492,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>22.42119655848851</v>
+        <v>22.39398247572752</v>
       </c>
       <c r="F2">
-        <v>24.83754680044602</v>
+        <v>24.80517018947465</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -1515,10 +1515,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>23.27666521911136</v>
+        <v>23.38774440771238</v>
       </c>
       <c r="F3">
-        <v>25.36441724580127</v>
+        <v>25.27860328294627</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -1538,10 +1538,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>23.8455917682335</v>
+        <v>23.83293802539268</v>
       </c>
       <c r="F4">
-        <v>25.76616787624295</v>
+        <v>25.6301537544293</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -1561,10 +1561,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>24.23570687798646</v>
+        <v>24.24476482491017</v>
       </c>
       <c r="F5">
-        <v>26.09432491360145</v>
+        <v>25.92586736592267</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -1584,10 +1584,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>24.53434862311874</v>
+        <v>24.54000957771778</v>
       </c>
       <c r="F6">
-        <v>26.35468364217249</v>
+        <v>26.24054317029945</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -1607,10 +1607,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>24.79737001150091</v>
+        <v>24.85377215677361</v>
       </c>
       <c r="F7">
-        <v>26.5704687666846</v>
+        <v>26.49393939317652</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -1630,10 +1630,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>25.03584713585309</v>
+        <v>25.11189521031171</v>
       </c>
       <c r="F8">
-        <v>26.79244327640099</v>
+        <v>26.70895513455805</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -1653,10 +1653,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>25.26507789802793</v>
+        <v>25.28059294654977</v>
       </c>
       <c r="F9">
-        <v>26.98184661727297</v>
+        <v>26.88826319720751</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -1676,10 +1676,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>25.47602905572333</v>
+        <v>25.4797643378061</v>
       </c>
       <c r="F10">
-        <v>27.18449566052545</v>
+        <v>27.09319362027669</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -1699,10 +1699,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>25.68165916992385</v>
+        <v>25.68386858412893</v>
       </c>
       <c r="F11">
-        <v>27.37574501345896</v>
+        <v>27.33770965035601</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -1722,10 +1722,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>25.84539232444865</v>
+        <v>25.84676685162064</v>
       </c>
       <c r="F12">
-        <v>27.52309832815791</v>
+        <v>27.52405293714859</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -1745,10 +1745,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>26.0085527626372</v>
+        <v>26.07548590218142</v>
       </c>
       <c r="F13">
-        <v>27.73235192996206</v>
+        <v>27.69848788363742</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -1768,10 +1768,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>26.23739455165867</v>
+        <v>26.20216139582194</v>
       </c>
       <c r="F14">
-        <v>27.88477120248171</v>
+        <v>27.82868029396909</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -1791,10 +1791,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>26.39515545109785</v>
+        <v>26.38295161540449</v>
       </c>
       <c r="F15">
-        <v>28.05633790987029</v>
+        <v>28.02078960200026</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -1814,10 +1814,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>26.54563732492614</v>
+        <v>26.55044543912536</v>
       </c>
       <c r="F16">
-        <v>28.26654819890703</v>
+        <v>28.24907315324988</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -1837,10 +1837,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>26.68989417190254</v>
+        <v>26.76190954330712</v>
       </c>
       <c r="F17">
-        <v>28.40336662754486</v>
+        <v>28.37054308576842</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -1860,10 +1860,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>26.86317219307141</v>
+        <v>26.92091384945326</v>
       </c>
       <c r="F18">
-        <v>28.60640652748913</v>
+        <v>28.61690925618922</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -1883,10 +1883,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>27.04750921557418</v>
+        <v>27.07561115621799</v>
       </c>
       <c r="F19">
-        <v>28.78389051566792</v>
+        <v>28.82011227903112</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -1906,10 +1906,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>27.20982217450209</v>
+        <v>27.24663450746833</v>
       </c>
       <c r="F20">
-        <v>28.95474645130165</v>
+        <v>28.95350813661453</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -1929,10 +1929,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>27.34755183278997</v>
+        <v>27.34899086652788</v>
       </c>
       <c r="F21">
-        <v>29.16881254357702</v>
+        <v>29.22498148522716</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -1952,10 +1952,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>27.50831385201233</v>
+        <v>27.49505419290715</v>
       </c>
       <c r="F22">
-        <v>29.37476547022617</v>
+        <v>29.41651527391958</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -1975,10 +1975,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>27.64348369408098</v>
+        <v>27.6350183025822</v>
       </c>
       <c r="F23">
-        <v>29.5680618775625</v>
+        <v>29.57872261417696</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -1998,10 +1998,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>27.83854807947024</v>
+        <v>27.84920721274976</v>
       </c>
       <c r="F24">
-        <v>29.77974661480736</v>
+        <v>29.80248536703398</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -2021,10 +2021,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>27.9991230722299</v>
+        <v>28.02785332618953</v>
       </c>
       <c r="F25">
-        <v>30.02037904779079</v>
+        <v>29.96139480599149</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -2044,10 +2044,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>28.13452244924421</v>
+        <v>28.20094147642877</v>
       </c>
       <c r="F26">
-        <v>30.23012800914579</v>
+        <v>30.10225454921447</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -2067,10 +2067,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>28.3095171049373</v>
+        <v>28.35545631710814</v>
       </c>
       <c r="F27">
-        <v>30.43485017490677</v>
+        <v>30.32999807036201</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -2090,10 +2090,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>28.52578950146315</v>
+        <v>28.53826456914732</v>
       </c>
       <c r="F28">
-        <v>30.66694465286916</v>
+        <v>30.57765422345194</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -2113,10 +2113,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>28.68465574876834</v>
+        <v>28.68817923505624</v>
       </c>
       <c r="F29">
-        <v>30.94211887869725</v>
+        <v>30.80730583645489</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -2136,10 +2136,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>28.90127266858938</v>
+        <v>28.89802667591164</v>
       </c>
       <c r="F30">
-        <v>31.23380220733105</v>
+        <v>31.1069992623173</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -2159,10 +2159,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>29.05868601662457</v>
+        <v>29.04123207887332</v>
       </c>
       <c r="F31">
-        <v>31.45262298934107</v>
+        <v>31.37389829246836</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -2182,10 +2182,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>29.30640748096394</v>
+        <v>29.22382849385914</v>
       </c>
       <c r="F32">
-        <v>31.78022890792026</v>
+        <v>31.65579487247089</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -2205,10 +2205,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>29.46837872333309</v>
+        <v>29.45188336343398</v>
       </c>
       <c r="F33">
-        <v>32.13690503336912</v>
+        <v>32.02331903589834</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -2228,10 +2228,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>29.70243255729694</v>
+        <v>29.60867461796414</v>
       </c>
       <c r="F34">
-        <v>32.42078024604212</v>
+        <v>32.3180676321229</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -2251,10 +2251,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>29.97452870027076</v>
+        <v>29.77903757898867</v>
       </c>
       <c r="F35">
-        <v>32.83825699789696</v>
+        <v>32.68334390417083</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -2274,10 +2274,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>30.21436403022594</v>
+        <v>30.0499442223814</v>
       </c>
       <c r="F36">
-        <v>33.15626736384588</v>
+        <v>33.19112783859285</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -2297,10 +2297,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>30.53604997479993</v>
+        <v>30.43432613584651</v>
       </c>
       <c r="F37">
-        <v>33.65333617074955</v>
+        <v>33.62138168237635</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -2320,10 +2320,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>30.77772231067983</v>
+        <v>30.72738038591606</v>
       </c>
       <c r="F38">
-        <v>34.0794860317617</v>
+        <v>34.25619377730633</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -2343,10 +2343,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>31.18976692787294</v>
+        <v>31.12251278113924</v>
       </c>
       <c r="F39">
-        <v>34.77222437456897</v>
+        <v>34.64900281121591</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -2366,10 +2366,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>31.54290966970603</v>
+        <v>31.38648416244601</v>
       </c>
       <c r="F40">
-        <v>35.42281217358802</v>
+        <v>35.46973612513396</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -2389,10 +2389,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>31.87833935638393</v>
+        <v>31.85220131024802</v>
       </c>
       <c r="F41">
-        <v>36.23190763422978</v>
+        <v>36.0628348985092</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -2412,10 +2412,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>32.43711000711289</v>
+        <v>32.35865400030587</v>
       </c>
       <c r="F42">
-        <v>37.24579194326407</v>
+        <v>36.89794644663493</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -2435,10 +2435,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>32.94651459170124</v>
+        <v>33.04082101217585</v>
       </c>
       <c r="F43">
-        <v>38.83173487875719</v>
+        <v>38.5325382222487</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -2458,10 +2458,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>33.89768636591154</v>
+        <v>33.98424000304558</v>
       </c>
       <c r="F44">
-        <v>41.29574158951439</v>
+        <v>41.12487833001509</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -2481,10 +2481,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>34.98192771283152</v>
+        <v>35.27139366807496</v>
       </c>
       <c r="F45">
-        <v>46.56687918790278</v>
+        <v>46.81484453194197</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -2537,10 +2537,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>21.43252725391523</v>
+        <v>21.33382225522421</v>
       </c>
       <c r="F2">
-        <v>24.2598288948101</v>
+        <v>24.32375226504397</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -2560,10 +2560,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>22.47024402737904</v>
+        <v>22.49673724972679</v>
       </c>
       <c r="F3">
-        <v>24.88642065894946</v>
+        <v>24.96562971723484</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -2583,10 +2583,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>23.13235005627613</v>
+        <v>23.15640972318407</v>
       </c>
       <c r="F4">
-        <v>25.28698818232875</v>
+        <v>25.3394983253234</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -2606,10 +2606,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>23.61089753509662</v>
+        <v>23.58657665662632</v>
       </c>
       <c r="F5">
-        <v>25.5919181950496</v>
+        <v>25.60362117594775</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -2629,10 +2629,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>23.92811100265015</v>
+        <v>23.90342827231632</v>
       </c>
       <c r="F6">
-        <v>25.90157231192674</v>
+        <v>25.88570720114336</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -2652,10 +2652,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>24.19433444434884</v>
+        <v>24.2617867144774</v>
       </c>
       <c r="F7">
-        <v>26.16192252738193</v>
+        <v>26.1762996266231</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -2675,10 +2675,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>24.53331499048362</v>
+        <v>24.44652826821062</v>
       </c>
       <c r="F8">
-        <v>26.45395438087378</v>
+        <v>26.47878176718513</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -2698,10 +2698,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>24.78042621703843</v>
+        <v>24.72958737158464</v>
       </c>
       <c r="F9">
-        <v>26.65076484710329</v>
+        <v>26.7213779330698</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -2721,10 +2721,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>25.01445878270782</v>
+        <v>24.9535458784632</v>
       </c>
       <c r="F10">
-        <v>26.89676576682808</v>
+        <v>26.95474592099192</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -2744,10 +2744,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>25.18570906308479</v>
+        <v>25.19989870059414</v>
       </c>
       <c r="F11">
-        <v>27.11755080818385</v>
+        <v>27.13203947329083</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -2767,10 +2767,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>25.38555734312132</v>
+        <v>25.404457259907</v>
       </c>
       <c r="F12">
-        <v>27.29877991701951</v>
+        <v>27.34181731198478</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -2790,10 +2790,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>25.56163152677707</v>
+        <v>25.63373994758192</v>
       </c>
       <c r="F13">
-        <v>27.51402685568801</v>
+        <v>27.63122571484803</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -2813,10 +2813,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>25.78870593269304</v>
+        <v>25.77857843378981</v>
       </c>
       <c r="F14">
-        <v>27.7414206854691</v>
+        <v>27.8122537858773</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -2836,10 +2836,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>25.97493803213399</v>
+        <v>26.02644857055861</v>
       </c>
       <c r="F15">
-        <v>27.93259686434575</v>
+        <v>27.98320362992524</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -2859,10 +2859,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>26.16126398296852</v>
+        <v>26.12186760783916</v>
       </c>
       <c r="F16">
-        <v>28.11805628889728</v>
+        <v>28.24809963191908</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -2882,10 +2882,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>26.35872847790984</v>
+        <v>26.31561257104302</v>
       </c>
       <c r="F17">
-        <v>28.35614854087529</v>
+        <v>28.39157471754943</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -2905,10 +2905,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>26.48152961024019</v>
+        <v>26.46596554250113</v>
       </c>
       <c r="F18">
-        <v>28.55584805594237</v>
+        <v>28.60037455283801</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -2928,10 +2928,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>26.68937719002318</v>
+        <v>26.66348439261646</v>
       </c>
       <c r="F19">
-        <v>28.78574320189843</v>
+        <v>28.80473992891352</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -2951,10 +2951,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>26.91576561322745</v>
+        <v>26.85793368594471</v>
       </c>
       <c r="F20">
-        <v>28.89979631006793</v>
+        <v>29.02321299609569</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -2974,10 +2974,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>27.09291431622841</v>
+        <v>27.06716066405687</v>
       </c>
       <c r="F21">
-        <v>29.14461436020979</v>
+        <v>29.27261694011266</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -2997,10 +2997,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>27.27533392459367</v>
+        <v>27.30061920974105</v>
       </c>
       <c r="F22">
-        <v>29.35093363787553</v>
+        <v>29.47275110165285</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -3020,10 +3020,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>27.45910226128491</v>
+        <v>27.44962847285141</v>
       </c>
       <c r="F23">
-        <v>29.63649120606194</v>
+        <v>29.74494381400316</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -3043,10 +3043,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>27.63721722538257</v>
+        <v>27.65563177057736</v>
       </c>
       <c r="F24">
-        <v>29.83270663799655</v>
+        <v>30.0424283666352</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -3066,10 +3066,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>27.78680245496974</v>
+        <v>27.89386841405569</v>
       </c>
       <c r="F25">
-        <v>30.07228200061398</v>
+        <v>30.25362439304523</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -3089,10 +3089,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>28.025460556225</v>
+        <v>28.06213524473971</v>
       </c>
       <c r="F26">
-        <v>30.24749664886983</v>
+        <v>30.43745977592666</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -3112,10 +3112,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>28.23602725759707</v>
+        <v>28.25742614091073</v>
       </c>
       <c r="F27">
-        <v>30.54382999757414</v>
+        <v>30.76295435083031</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -3135,10 +3135,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>28.43872420916907</v>
+        <v>28.51532653247407</v>
       </c>
       <c r="F28">
-        <v>30.81268468033066</v>
+        <v>30.94435306677507</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -3158,10 +3158,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>28.62682721816952</v>
+        <v>28.74032611673781</v>
       </c>
       <c r="F29">
-        <v>31.09046784379664</v>
+        <v>31.1722939072765</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -3181,10 +3181,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>28.83062206352082</v>
+        <v>28.98950316396386</v>
       </c>
       <c r="F30">
-        <v>31.34589164010031</v>
+        <v>31.43063291707798</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -3204,10 +3204,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>29.08968887630704</v>
+        <v>29.17962690960575</v>
       </c>
       <c r="F31">
-        <v>31.60218262508685</v>
+        <v>31.74091037693853</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -3227,10 +3227,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>29.33676825548179</v>
+        <v>29.39619843502502</v>
       </c>
       <c r="F32">
-        <v>31.95558738165413</v>
+        <v>32.08102201013413</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -3250,10 +3250,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>29.55965087050722</v>
+        <v>29.58725011976206</v>
       </c>
       <c r="F33">
-        <v>32.32348996999565</v>
+        <v>32.34340611317549</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -3273,10 +3273,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>29.7598112463792</v>
+        <v>29.87136767166049</v>
       </c>
       <c r="F34">
-        <v>32.7025328100156</v>
+        <v>32.77052890588507</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -3296,10 +3296,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>30.01894237601178</v>
+        <v>30.06984401591798</v>
       </c>
       <c r="F35">
-        <v>33.12288719572888</v>
+        <v>33.23635025601002</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -3319,10 +3319,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>30.31984117129031</v>
+        <v>30.39349735178237</v>
       </c>
       <c r="F36">
-        <v>33.58631630264042</v>
+        <v>33.55900863665099</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -3342,10 +3342,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>30.65774634545171</v>
+        <v>30.70269564537956</v>
       </c>
       <c r="F37">
-        <v>34.11218471013559</v>
+        <v>34.15368658348821</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -3365,10 +3365,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>30.96412069808072</v>
+        <v>31.13458789070209</v>
       </c>
       <c r="F38">
-        <v>34.75712724909253</v>
+        <v>34.66229941095837</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -3388,10 +3388,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>31.40919183333606</v>
+        <v>31.51589733521603</v>
       </c>
       <c r="F39">
-        <v>35.41621601620495</v>
+        <v>35.4631469928252</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -3411,10 +3411,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>31.79410385140571</v>
+        <v>31.88511241810111</v>
       </c>
       <c r="F40">
-        <v>36.14078276582828</v>
+        <v>36.21840727356149</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -3434,10 +3434,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>32.26977155166379</v>
+        <v>32.33516308003709</v>
       </c>
       <c r="F41">
-        <v>37.09265374278164</v>
+        <v>37.3124150557986</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -3457,10 +3457,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>32.8546673481771</v>
+        <v>32.99974081549797</v>
       </c>
       <c r="F42">
-        <v>38.31527098493003</v>
+        <v>38.47948658168254</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -3480,10 +3480,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>33.55146563486477</v>
+        <v>33.59222838304552</v>
       </c>
       <c r="F43">
-        <v>40.08099638293326</v>
+        <v>39.88210241174692</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -3503,10 +3503,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>34.38009302419371</v>
+        <v>34.43533466436604</v>
       </c>
       <c r="F44">
-        <v>42.58141405464649</v>
+        <v>42.668588186828</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -3526,10 +3526,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>36.02160630973566</v>
+        <v>36.08404097702532</v>
       </c>
       <c r="F45">
-        <v>48.64832051149628</v>
+        <v>48.23994391613832</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -3582,10 +3582,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>21.17363914831642</v>
+        <v>21.2605320002587</v>
       </c>
       <c r="F2">
-        <v>23.44253691532828</v>
+        <v>23.50022961710069</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -3605,10 +3605,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>22.03110662739668</v>
+        <v>22.00995696896985</v>
       </c>
       <c r="F3">
-        <v>23.95337511391394</v>
+        <v>23.90651595511117</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -3628,10 +3628,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>22.47740379090495</v>
+        <v>22.52615441557051</v>
       </c>
       <c r="F4">
-        <v>24.31488437310055</v>
+        <v>24.24387623916544</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -3651,10 +3651,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>22.87157443549507</v>
+        <v>22.81483501653576</v>
       </c>
       <c r="F5">
-        <v>24.56957019938397</v>
+        <v>24.56646506053749</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -3674,10 +3674,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>23.18207422633763</v>
+        <v>23.18458983874977</v>
       </c>
       <c r="F6">
-        <v>24.83680000519928</v>
+        <v>24.77423875085927</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -3697,10 +3697,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>23.44194570704185</v>
+        <v>23.37664422097172</v>
       </c>
       <c r="F7">
-        <v>25.04145207029273</v>
+        <v>25.03755869835609</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -3720,10 +3720,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>23.69650294777346</v>
+        <v>23.66112662882133</v>
       </c>
       <c r="F8">
-        <v>25.21222841413454</v>
+        <v>25.28635368939895</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -3743,10 +3743,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>23.91403276145349</v>
+        <v>23.84991012978037</v>
       </c>
       <c r="F9">
-        <v>25.40967252036429</v>
+        <v>25.49938221237864</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -3766,10 +3766,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>24.09103385957069</v>
+        <v>24.03305649100297</v>
       </c>
       <c r="F10">
-        <v>25.58545171599885</v>
+        <v>25.66515385489394</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -3789,10 +3789,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>24.24125373889323</v>
+        <v>24.20474015670537</v>
       </c>
       <c r="F11">
-        <v>25.7745876855579</v>
+        <v>25.82901795678415</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -3812,10 +3812,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>24.43491271814708</v>
+        <v>24.3637482646372</v>
       </c>
       <c r="F12">
-        <v>26.00611885741258</v>
+        <v>26.05418047771581</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -3835,10 +3835,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>24.61460750937698</v>
+        <v>24.59211759284572</v>
       </c>
       <c r="F13">
-        <v>26.18969322399431</v>
+        <v>26.1918833638806</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -3858,10 +3858,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>24.75766330080081</v>
+        <v>24.69221573416429</v>
       </c>
       <c r="F14">
-        <v>26.33471049604109</v>
+        <v>26.34781042509773</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -3881,10 +3881,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>24.93225592833175</v>
+        <v>24.82849889392601</v>
       </c>
       <c r="F15">
-        <v>26.47053288064136</v>
+        <v>26.57616946250455</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -3904,10 +3904,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>25.09357596879545</v>
+        <v>25.02595524748098</v>
       </c>
       <c r="F16">
-        <v>26.64836073499657</v>
+        <v>26.68889037404406</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -3927,10 +3927,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>25.22917125470669</v>
+        <v>25.173265321808</v>
       </c>
       <c r="F17">
-        <v>26.84903090103965</v>
+        <v>26.86880226826266</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -3950,10 +3950,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>25.38288722581349</v>
+        <v>25.3423074787497</v>
       </c>
       <c r="F18">
-        <v>27.02868683677769</v>
+        <v>27.02354879968824</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -3973,10 +3973,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>25.51949696919639</v>
+        <v>25.46528185665888</v>
       </c>
       <c r="F19">
-        <v>27.18452274831521</v>
+        <v>27.25125399281549</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -3996,10 +3996,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>25.64159885497458</v>
+        <v>25.68723510794156</v>
       </c>
       <c r="F20">
-        <v>27.3645357628136</v>
+        <v>27.3483676911364</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -4019,10 +4019,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>25.79505957501809</v>
+        <v>25.8010027660115</v>
       </c>
       <c r="F21">
-        <v>27.52205432940496</v>
+        <v>27.52625834668372</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -4042,10 +4042,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>25.98309382401778</v>
+        <v>25.97576315166808</v>
       </c>
       <c r="F22">
-        <v>27.72617631497452</v>
+        <v>27.69788124241633</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -4065,10 +4065,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>26.15298084731317</v>
+        <v>26.10630999989596</v>
       </c>
       <c r="F23">
-        <v>27.92598048844648</v>
+        <v>27.88200162245338</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -4088,10 +4088,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>26.29093976065083</v>
+        <v>26.23862570137656</v>
       </c>
       <c r="F24">
-        <v>28.10527332989458</v>
+        <v>28.04948906687746</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -4111,10 +4111,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>26.45623933053167</v>
+        <v>26.37370921655706</v>
       </c>
       <c r="F25">
-        <v>28.26324860324275</v>
+        <v>28.22857273779565</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -4134,10 +4134,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>26.63997314579098</v>
+        <v>26.51364898011948</v>
       </c>
       <c r="F26">
-        <v>28.43568912444855</v>
+        <v>28.41794010757667</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -4157,10 +4157,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>26.7693283712618</v>
+        <v>26.67206839481052</v>
       </c>
       <c r="F27">
-        <v>28.6948089877567</v>
+        <v>28.59594458148833</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -4180,10 +4180,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>26.90305009079915</v>
+        <v>26.83600893052318</v>
       </c>
       <c r="F28">
-        <v>28.90324393492439</v>
+        <v>28.83706309550436</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -4203,10 +4203,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>27.07573401274908</v>
+        <v>26.98557341356079</v>
       </c>
       <c r="F29">
-        <v>29.17821910709667</v>
+        <v>28.99647549782557</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -4226,10 +4226,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>27.16124203844541</v>
+        <v>27.18096333408033</v>
       </c>
       <c r="F30">
-        <v>29.41570989493238</v>
+        <v>29.24008629283759</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -4249,10 +4249,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>27.33158552228942</v>
+        <v>27.3530665342276</v>
       </c>
       <c r="F31">
-        <v>29.66129007546188</v>
+        <v>29.60355212622829</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -4272,10 +4272,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>27.53766272717687</v>
+        <v>27.52183782359379</v>
       </c>
       <c r="F32">
-        <v>29.953291673078</v>
+        <v>29.78414672582149</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -4295,10 +4295,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>27.78810163318662</v>
+        <v>27.75196200087179</v>
       </c>
       <c r="F33">
-        <v>30.19864802610518</v>
+        <v>30.14018546088252</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -4318,10 +4318,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>27.99689823553987</v>
+        <v>27.96927211976663</v>
       </c>
       <c r="F34">
-        <v>30.50671268600881</v>
+        <v>30.35218948564461</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -4341,10 +4341,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>28.2240809855744</v>
+        <v>28.15365614613387</v>
       </c>
       <c r="F35">
-        <v>30.79909225881451</v>
+        <v>30.67461575518678</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -4364,10 +4364,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>28.49001980888275</v>
+        <v>28.42537109851488</v>
       </c>
       <c r="F36">
-        <v>31.1438946388008</v>
+        <v>31.06712783782751</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -4387,10 +4387,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>28.71120671020802</v>
+        <v>28.75522946537446</v>
       </c>
       <c r="F37">
-        <v>31.62201148753358</v>
+        <v>31.50233533395314</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -4410,10 +4410,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>28.97878179665436</v>
+        <v>28.90720808262666</v>
       </c>
       <c r="F38">
-        <v>32.07964097501661</v>
+        <v>31.89092461580753</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -4433,10 +4433,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>29.31030885946572</v>
+        <v>29.26422122057575</v>
       </c>
       <c r="F39">
-        <v>32.57228545204503</v>
+        <v>32.47488605969574</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -4456,10 +4456,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>29.5936900688835</v>
+        <v>29.51530466930515</v>
       </c>
       <c r="F40">
-        <v>33.20597242772271</v>
+        <v>33.2310337849953</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -4479,10 +4479,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>30.0256979142317</v>
+        <v>30.04553717881596</v>
       </c>
       <c r="F41">
-        <v>33.89090057058977</v>
+        <v>34.04523125547468</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -4502,10 +4502,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>30.436768329584</v>
+        <v>30.41056768555132</v>
       </c>
       <c r="F42">
-        <v>34.80268016144397</v>
+        <v>34.91999698701493</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -4525,10 +4525,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>30.98846829004048</v>
+        <v>30.99764430901228</v>
       </c>
       <c r="F43">
-        <v>36.25797781239898</v>
+        <v>36.32583557974458</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -4548,10 +4548,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>31.75708829283247</v>
+        <v>31.71438632192487</v>
       </c>
       <c r="F44">
-        <v>38.71506038707831</v>
+        <v>38.60989801356577</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -4571,10 +4571,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>32.84269371158826</v>
+        <v>32.89949058145042</v>
       </c>
       <c r="F45">
-        <v>43.70520773122053</v>
+        <v>43.4124001842964</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -4627,10 +4627,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>21.18333331346077</v>
+        <v>21.24162322430514</v>
       </c>
       <c r="F2">
-        <v>23.07812932343709</v>
+        <v>23.04315163818174</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -4650,10 +4650,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>21.90077278942477</v>
+        <v>21.85041960432938</v>
       </c>
       <c r="F3">
-        <v>23.43426210735002</v>
+        <v>23.40790356686945</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -4673,10 +4673,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>22.29205865601357</v>
+        <v>22.30774963733084</v>
       </c>
       <c r="F4">
-        <v>23.66033468770972</v>
+        <v>23.7014431758149</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -4696,10 +4696,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>22.60277248297668</v>
+        <v>22.60930911253406</v>
       </c>
       <c r="F5">
-        <v>23.89948065534116</v>
+        <v>23.90649422196224</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -4719,10 +4719,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>22.81644076095207</v>
+        <v>22.77212977754192</v>
       </c>
       <c r="F6">
-        <v>24.12512148816947</v>
+        <v>24.06074310790342</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -4742,10 +4742,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>23.00230112210779</v>
+        <v>23.04311968933596</v>
       </c>
       <c r="F7">
-        <v>24.31409606016087</v>
+        <v>24.28398506219864</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -4765,10 +4765,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>23.18118552013827</v>
+        <v>23.18153467857105</v>
       </c>
       <c r="F8">
-        <v>24.46514366046186</v>
+        <v>24.42907171845333</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -4788,10 +4788,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>23.34902492371029</v>
+        <v>23.36423579165571</v>
       </c>
       <c r="F9">
-        <v>24.60032729630653</v>
+        <v>24.591571282891</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -4811,10 +4811,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>23.49372370139809</v>
+        <v>23.5111489029255</v>
       </c>
       <c r="F10">
-        <v>24.76230753596602</v>
+        <v>24.73488712718236</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -4834,10 +4834,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>23.63155608747978</v>
+        <v>23.64539250597203</v>
       </c>
       <c r="F11">
-        <v>24.90864383381076</v>
+        <v>24.87212558276778</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -4857,10 +4857,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>23.77227913679745</v>
+        <v>23.75565088108196</v>
       </c>
       <c r="F12">
-        <v>25.0296480482094</v>
+        <v>24.98839577790688</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -4880,10 +4880,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>23.88458044928347</v>
+        <v>23.9508451444527</v>
       </c>
       <c r="F13">
-        <v>25.19213632037437</v>
+        <v>25.13362581900627</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -4903,10 +4903,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>24.02207095851806</v>
+        <v>24.01180449443996</v>
       </c>
       <c r="F14">
-        <v>25.32437608675071</v>
+        <v>25.30404214842879</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -4926,10 +4926,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>24.14732481981483</v>
+        <v>24.15488121945625</v>
       </c>
       <c r="F15">
-        <v>25.45175070508963</v>
+        <v>25.42209720014608</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -4949,10 +4949,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>24.28895560632654</v>
+        <v>24.26044271180804</v>
       </c>
       <c r="F16">
-        <v>25.59019646625604</v>
+        <v>25.53052204954407</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -4972,10 +4972,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>24.39323773812652</v>
+        <v>24.43303120498691</v>
       </c>
       <c r="F17">
-        <v>25.74162312739873</v>
+        <v>25.65732726202027</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -4995,10 +4995,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>24.51422534321184</v>
+        <v>24.5112436174755</v>
       </c>
       <c r="F18">
-        <v>25.87037297706834</v>
+        <v>25.86024652690618</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -5018,10 +5018,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>24.62920835292481</v>
+        <v>24.66729585205203</v>
       </c>
       <c r="F19">
-        <v>26.01492705659995</v>
+        <v>26.01401048309367</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -5041,10 +5041,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>24.7406945319812</v>
+        <v>24.71700920807888</v>
       </c>
       <c r="F20">
-        <v>26.14233188410448</v>
+        <v>26.10857666136048</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -5064,10 +5064,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>24.8704707013598</v>
+        <v>24.82109785082486</v>
       </c>
       <c r="F21">
-        <v>26.29207685759456</v>
+        <v>26.26024024471343</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -5087,10 +5087,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>24.95355710340617</v>
+        <v>24.93247675974765</v>
       </c>
       <c r="F22">
-        <v>26.45934836125143</v>
+        <v>26.396921127642</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -5110,10 +5110,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>25.09210763018836</v>
+        <v>25.08656678692772</v>
       </c>
       <c r="F23">
-        <v>26.57292941944814</v>
+        <v>26.4950753170858</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -5133,10 +5133,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>25.20297300344084</v>
+        <v>25.21050974427389</v>
       </c>
       <c r="F24">
-        <v>26.74783520490318</v>
+        <v>26.66667345801889</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -5156,10 +5156,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>25.35461826877581</v>
+        <v>25.29521728337286</v>
       </c>
       <c r="F25">
-        <v>26.87158236471209</v>
+        <v>26.83506594214014</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -5179,10 +5179,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>25.46976744637393</v>
+        <v>25.46873436434035</v>
       </c>
       <c r="F26">
-        <v>27.03574800132975</v>
+        <v>26.97339230334033</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -5202,10 +5202,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>25.58092500944843</v>
+        <v>25.55807439908608</v>
       </c>
       <c r="F27">
-        <v>27.21164334220464</v>
+        <v>27.17341134172618</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -5225,10 +5225,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>25.75445348938907</v>
+        <v>25.71837803757287</v>
       </c>
       <c r="F28">
-        <v>27.38129356486103</v>
+        <v>27.37337154901776</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -5248,10 +5248,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>25.87999123764076</v>
+        <v>25.82405135045225</v>
       </c>
       <c r="F29">
-        <v>27.54587051389629</v>
+        <v>27.5528601611694</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -5271,10 +5271,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>26.01623720359827</v>
+        <v>25.93958165309613</v>
       </c>
       <c r="F30">
-        <v>27.76354260481718</v>
+        <v>27.72926379212065</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -5294,10 +5294,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>26.16925953087626</v>
+        <v>26.11183654694503</v>
       </c>
       <c r="F31">
-        <v>27.92025007049166</v>
+        <v>27.95175056625604</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -5317,10 +5317,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>26.25865218235252</v>
+        <v>26.25431744170621</v>
       </c>
       <c r="F32">
-        <v>28.16289067057138</v>
+        <v>28.11906551010783</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -5340,10 +5340,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>26.43153941595629</v>
+        <v>26.44239905145674</v>
       </c>
       <c r="F33">
-        <v>28.37439966943402</v>
+        <v>28.33441344984801</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -5363,10 +5363,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>26.62334610370767</v>
+        <v>26.59569709103298</v>
       </c>
       <c r="F34">
-        <v>28.61611077819547</v>
+        <v>28.57930274498726</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -5386,10 +5386,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>26.81774004501354</v>
+        <v>26.74568973017763</v>
       </c>
       <c r="F35">
-        <v>28.85514944629865</v>
+        <v>28.81181508858395</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -5409,10 +5409,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>26.99642458910662</v>
+        <v>26.87303086748552</v>
       </c>
       <c r="F36">
-        <v>29.23768686680619</v>
+        <v>29.10453068006381</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -5432,10 +5432,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>27.17937100094138</v>
+        <v>27.07417940578581</v>
       </c>
       <c r="F37">
-        <v>29.46841158434699</v>
+        <v>29.51852414369744</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -5455,10 +5455,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>27.38524520446794</v>
+        <v>27.29880718281166</v>
       </c>
       <c r="F38">
-        <v>29.83530146556755</v>
+        <v>29.98707124509897</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -5478,10 +5478,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>27.62841413552471</v>
+        <v>27.55607851510936</v>
       </c>
       <c r="F39">
-        <v>30.28280501726563</v>
+        <v>30.36613385173485</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -5501,10 +5501,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>27.85435992901072</v>
+        <v>27.80500793240985</v>
       </c>
       <c r="F40">
-        <v>30.75288108932023</v>
+        <v>30.7032167455822</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -5524,10 +5524,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>28.19721975189082</v>
+        <v>28.32801017508119</v>
       </c>
       <c r="F41">
-        <v>31.3925398723679</v>
+        <v>31.31134059016807</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -5547,10 +5547,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>28.60350619243752</v>
+        <v>28.60736634100446</v>
       </c>
       <c r="F42">
-        <v>32.04484840110617</v>
+        <v>32.16408151022821</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -5570,10 +5570,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>29.02694635062057</v>
+        <v>29.06914411330776</v>
       </c>
       <c r="F43">
-        <v>33.13818062947612</v>
+        <v>33.32588109867425</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -5593,10 +5593,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>29.68864748898934</v>
+        <v>29.65329422085546</v>
       </c>
       <c r="F44">
-        <v>34.94121040340255</v>
+        <v>35.02480758181876</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -5616,10 +5616,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>30.65845593638408</v>
+        <v>30.7712216842948</v>
       </c>
       <c r="F45">
-        <v>38.68606635866202</v>
+        <v>38.70323155729506</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -5672,10 +5672,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>17.96631982288583</v>
+        <v>17.99643327920827</v>
       </c>
       <c r="F2">
-        <v>19.58299576161269</v>
+        <v>19.58181635054992</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -5695,10 +5695,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>18.60827849703281</v>
+        <v>18.55734123864566</v>
       </c>
       <c r="F3">
-        <v>19.89078156346201</v>
+        <v>19.88956187231148</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -5718,10 +5718,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>18.93871484155444</v>
+        <v>18.95450638397011</v>
       </c>
       <c r="F4">
-        <v>20.11893685905831</v>
+        <v>20.09152219633113</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -5741,10 +5741,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>19.2009329040448</v>
+        <v>19.09821840163156</v>
       </c>
       <c r="F5">
-        <v>20.33142349797383</v>
+        <v>20.25777400197956</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -5764,10 +5764,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>19.36830887578704</v>
+        <v>19.31915178728177</v>
       </c>
       <c r="F6">
-        <v>20.52212593409327</v>
+        <v>20.44601138929875</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -5787,10 +5787,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>19.54109668448567</v>
+        <v>19.51243530174552</v>
       </c>
       <c r="F7">
-        <v>20.64026705563635</v>
+        <v>20.57713252235058</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -5810,10 +5810,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>19.71669067658532</v>
+        <v>19.67603124965837</v>
       </c>
       <c r="F8">
-        <v>20.78267530167416</v>
+        <v>20.76213241701805</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -5833,10 +5833,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>19.84717597198543</v>
+        <v>19.79335023338725</v>
       </c>
       <c r="F9">
-        <v>20.91610672673832</v>
+        <v>20.88777646331008</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -5856,10 +5856,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>19.990556187686</v>
+        <v>19.89550927721904</v>
       </c>
       <c r="F10">
-        <v>21.04119921376747</v>
+        <v>21.04535010399162</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -5879,10 +5879,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>20.11527237021738</v>
+        <v>20.00200081503742</v>
       </c>
       <c r="F11">
-        <v>21.16936857990767</v>
+        <v>21.1536403823421</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -5902,10 +5902,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>20.20644503201114</v>
+        <v>20.18497738712399</v>
       </c>
       <c r="F12">
-        <v>21.29052007611261</v>
+        <v>21.26591797413553</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -5925,10 +5925,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>20.3269956738303</v>
+        <v>20.26892206234455</v>
       </c>
       <c r="F13">
-        <v>21.43401159818902</v>
+        <v>21.3893488123699</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -5948,10 +5948,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>20.44803786776881</v>
+        <v>20.40782529293107</v>
       </c>
       <c r="F14">
-        <v>21.51481624392768</v>
+        <v>21.50317870890806</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -5971,10 +5971,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>20.52918384518714</v>
+        <v>20.54293408713673</v>
       </c>
       <c r="F15">
-        <v>21.6450868222552</v>
+        <v>21.62632220480821</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -5994,10 +5994,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>20.65352245593677</v>
+        <v>20.60860848226411</v>
       </c>
       <c r="F16">
-        <v>21.75599340736692</v>
+        <v>21.71366635928384</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -6017,10 +6017,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>20.77220621601352</v>
+        <v>20.71768049999013</v>
       </c>
       <c r="F17">
-        <v>21.88302800824798</v>
+        <v>21.82744189068987</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -6040,10 +6040,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>20.85362922650838</v>
+        <v>20.82267745790359</v>
       </c>
       <c r="F18">
-        <v>21.98751534255162</v>
+        <v>21.93924902194291</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -6063,10 +6063,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>20.95611853750933</v>
+        <v>20.92907017872284</v>
       </c>
       <c r="F19">
-        <v>22.10068009735615</v>
+        <v>22.07605892364965</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -6086,10 +6086,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>21.03205557537767</v>
+        <v>21.04051156725535</v>
       </c>
       <c r="F20">
-        <v>22.20393671154466</v>
+        <v>22.19231011486465</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -6109,10 +6109,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>21.1236198890393</v>
+        <v>21.14051291481344</v>
       </c>
       <c r="F21">
-        <v>22.33001042619203</v>
+        <v>22.33639468834525</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -6132,10 +6132,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>21.25226742587397</v>
+        <v>21.26536986519197</v>
       </c>
       <c r="F22">
-        <v>22.42497738623533</v>
+        <v>22.44271366092788</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -6155,10 +6155,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>21.36305356757313</v>
+        <v>21.37812310450488</v>
       </c>
       <c r="F23">
-        <v>22.55469914658357</v>
+        <v>22.572685396424</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -6178,10 +6178,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>21.460069683548</v>
+        <v>21.47643877124916</v>
       </c>
       <c r="F24">
-        <v>22.66261672216065</v>
+        <v>22.71493049795903</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -6201,10 +6201,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>21.54330520600012</v>
+        <v>21.57376606622909</v>
       </c>
       <c r="F25">
-        <v>22.83891121919118</v>
+        <v>22.80957885901231</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -6224,10 +6224,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>21.66873849407735</v>
+        <v>21.64602896525005</v>
       </c>
       <c r="F26">
-        <v>22.95258475760421</v>
+        <v>22.9814293330867</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -6247,10 +6247,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>21.79388686978501</v>
+        <v>21.76194542745005</v>
       </c>
       <c r="F27">
-        <v>23.10749493960174</v>
+        <v>23.11264481811923</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -6270,10 +6270,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>21.9149016280241</v>
+        <v>21.87472468140497</v>
       </c>
       <c r="F28">
-        <v>23.22738629469995</v>
+        <v>23.29241965403214</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -6293,10 +6293,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>22.03593316544491</v>
+        <v>22.00604520223962</v>
       </c>
       <c r="F29">
-        <v>23.37150036691521</v>
+        <v>23.42200286444781</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -6316,10 +6316,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>22.1448471829161</v>
+        <v>22.06104280633541</v>
       </c>
       <c r="F30">
-        <v>23.59833006273693</v>
+        <v>23.59795812097301</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -6339,10 +6339,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>22.22610621868733</v>
+        <v>22.21316120136435</v>
       </c>
       <c r="F31">
-        <v>23.7183169400391</v>
+        <v>23.77234799131085</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -6362,10 +6362,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>22.37003093893378</v>
+        <v>22.35878246930941</v>
       </c>
       <c r="F32">
-        <v>23.91803065600989</v>
+        <v>23.90348255692263</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -6385,10 +6385,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>22.5154433517194</v>
+        <v>22.54618488857495</v>
       </c>
       <c r="F33">
-        <v>24.21301428795115</v>
+        <v>24.10863144839958</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -6408,10 +6408,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>22.6650252133567</v>
+        <v>22.64265107461286</v>
       </c>
       <c r="F34">
-        <v>24.36601604546272</v>
+        <v>24.32649454350182</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -6431,10 +6431,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>22.82620695283967</v>
+        <v>22.81738631606595</v>
       </c>
       <c r="F35">
-        <v>24.52389995379139</v>
+        <v>24.53843559120578</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -6454,10 +6454,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>22.95573417023908</v>
+        <v>22.98321406917601</v>
       </c>
       <c r="F36">
-        <v>24.78892088713684</v>
+        <v>24.78811655550888</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -6477,10 +6477,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>23.14709920649448</v>
+        <v>23.08269453010284</v>
       </c>
       <c r="F37">
-        <v>25.11615253755725</v>
+        <v>25.07021702015365</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -6500,10 +6500,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>23.35786398500792</v>
+        <v>23.33391042026553</v>
       </c>
       <c r="F38">
-        <v>25.39115754121416</v>
+        <v>25.39528974203969</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -6523,10 +6523,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>23.5772255877198</v>
+        <v>23.51736549989203</v>
       </c>
       <c r="F39">
-        <v>25.74225997409732</v>
+        <v>25.75375915420576</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -6546,10 +6546,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>23.80033279749837</v>
+        <v>23.74760043101258</v>
       </c>
       <c r="F40">
-        <v>26.19948495108935</v>
+        <v>26.1160410605258</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -6569,10 +6569,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>24.05904629779981</v>
+        <v>24.02535953823036</v>
       </c>
       <c r="F41">
-        <v>26.74328229114892</v>
+        <v>26.6286301883884</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -6592,10 +6592,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>24.38233314161148</v>
+        <v>24.33947630828438</v>
       </c>
       <c r="F42">
-        <v>27.37285659286391</v>
+        <v>27.29974033968717</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -6615,10 +6615,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>24.7550448097917</v>
+        <v>24.69072796034951</v>
       </c>
       <c r="F43">
-        <v>28.21894698201028</v>
+        <v>28.18529291774293</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -6638,10 +6638,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>25.35124408289982</v>
+        <v>25.29822060412429</v>
       </c>
       <c r="F44">
-        <v>29.74295960304591</v>
+        <v>29.60538979325344</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -6661,10 +6661,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>26.22477956641148</v>
+        <v>26.19151033537499</v>
       </c>
       <c r="F45">
-        <v>33.30626955213701</v>
+        <v>32.65276370539637</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -6717,10 +6717,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>15.11594084491648</v>
+        <v>15.07214012180992</v>
       </c>
       <c r="F2">
-        <v>17.00410579989943</v>
+        <v>17.01237904130591</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -6740,10 +6740,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>15.72933660024419</v>
+        <v>15.77674972526342</v>
       </c>
       <c r="F3">
-        <v>17.33408871345574</v>
+        <v>17.39392760266088</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -6763,10 +6763,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>16.16882302921707</v>
+        <v>16.17270315614889</v>
       </c>
       <c r="F4">
-        <v>17.65643192540606</v>
+        <v>17.6613854387836</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -6786,10 +6786,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>16.4948598591926</v>
+        <v>16.4735231211543</v>
       </c>
       <c r="F5">
-        <v>17.8326133518911</v>
+        <v>17.91616295847916</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -6809,10 +6809,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>16.68503413941001</v>
+        <v>16.7574265787732</v>
       </c>
       <c r="F6">
-        <v>18.07401650062778</v>
+        <v>18.06146700050761</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -6832,10 +6832,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>16.87793355181405</v>
+        <v>16.91271882128856</v>
       </c>
       <c r="F7">
-        <v>18.25829784856349</v>
+        <v>18.22791847517813</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -6855,10 +6855,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>17.082212888331</v>
+        <v>17.1111886886317</v>
       </c>
       <c r="F8">
-        <v>18.39484759068885</v>
+        <v>18.3892993343371</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -6878,10 +6878,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>17.24962197147567</v>
+        <v>17.24935559597219</v>
       </c>
       <c r="F9">
-        <v>18.59379124394878</v>
+        <v>18.54423510331716</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -6901,10 +6901,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>17.3957455226147</v>
+        <v>17.40444100774449</v>
       </c>
       <c r="F10">
-        <v>18.71614332804753</v>
+        <v>18.73728870391156</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -6924,10 +6924,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>17.56263949127226</v>
+        <v>17.51023425009828</v>
       </c>
       <c r="F11">
-        <v>18.85793414873726</v>
+        <v>18.87372502130937</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -6947,10 +6947,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>17.6969948038369</v>
+        <v>17.71144394123869</v>
       </c>
       <c r="F12">
-        <v>19.0292119703633</v>
+        <v>19.00894280579107</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -6970,10 +6970,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>17.85091887524366</v>
+        <v>17.81764296211013</v>
       </c>
       <c r="F13">
-        <v>19.16776020915075</v>
+        <v>19.1488824578092</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -6993,10 +6993,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>17.98242641747498</v>
+        <v>17.95121886229614</v>
       </c>
       <c r="F14">
-        <v>19.28748189472416</v>
+        <v>19.35222782852762</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -7016,10 +7016,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>18.11174650004816</v>
+        <v>18.06214823914718</v>
       </c>
       <c r="F15">
-        <v>19.4145710059192</v>
+        <v>19.43203823072039</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -7039,10 +7039,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>18.26626783025116</v>
+        <v>18.19312775272855</v>
       </c>
       <c r="F16">
-        <v>19.53669363330602</v>
+        <v>19.50503928026632</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -7062,10 +7062,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>18.38034664356049</v>
+        <v>18.29742285429041</v>
       </c>
       <c r="F17">
-        <v>19.70981597105233</v>
+        <v>19.73682621582854</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -7085,10 +7085,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>18.48784654430465</v>
+        <v>18.40543826631464</v>
       </c>
       <c r="F18">
-        <v>19.87329682420563</v>
+        <v>19.88164454130584</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -7108,10 +7108,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>18.62412735320867</v>
+        <v>18.55349915008709</v>
       </c>
       <c r="F19">
-        <v>19.9755230849862</v>
+        <v>19.99901827006</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -7131,10 +7131,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>18.72485710467863</v>
+        <v>18.65079664102042</v>
       </c>
       <c r="F20">
-        <v>20.13384773103473</v>
+        <v>20.13949408097896</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -7154,10 +7154,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>18.85833463556719</v>
+        <v>18.77710476908533</v>
       </c>
       <c r="F21">
-        <v>20.27448168341188</v>
+        <v>20.36286439749923</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -7177,10 +7177,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>19.0044467996561</v>
+        <v>18.94167339060436</v>
       </c>
       <c r="F22">
-        <v>20.41918775073522</v>
+        <v>20.44482573956549</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -7200,10 +7200,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>19.10274733205826</v>
+        <v>19.09555194188344</v>
       </c>
       <c r="F23">
-        <v>20.59903817085632</v>
+        <v>20.61700898173174</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -7223,10 +7223,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>19.26250404899129</v>
+        <v>19.20521989421405</v>
       </c>
       <c r="F24">
-        <v>20.73972040966741</v>
+        <v>20.75484791942257</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -7246,10 +7246,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>19.35678263530888</v>
+        <v>19.36772657063218</v>
       </c>
       <c r="F25">
-        <v>20.89650347275228</v>
+        <v>20.89471470237143</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -7269,10 +7269,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>19.54348208146943</v>
+        <v>19.50483294140674</v>
       </c>
       <c r="F26">
-        <v>21.02646698394653</v>
+        <v>21.11290828680272</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -7292,10 +7292,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>19.64870535231751</v>
+        <v>19.62329582410473</v>
       </c>
       <c r="F27">
-        <v>21.23378152614821</v>
+        <v>21.26288346550691</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -7315,10 +7315,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>19.79091038831631</v>
+        <v>19.71514199549543</v>
       </c>
       <c r="F28">
-        <v>21.44885482140448</v>
+        <v>21.44356524702761</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -7338,10 +7338,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>19.93530437543264</v>
+        <v>19.87356347672625</v>
       </c>
       <c r="F29">
-        <v>21.62545722463783</v>
+        <v>21.68739090529194</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -7361,10 +7361,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>20.090733193993</v>
+        <v>19.99003340639165</v>
       </c>
       <c r="F30">
-        <v>21.85450645546731</v>
+        <v>21.78565153310129</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -7384,10 +7384,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>20.22176313555491</v>
+        <v>20.11270164031645</v>
       </c>
       <c r="F31">
-        <v>22.08303164405955</v>
+        <v>22.01625729819082</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -7407,10 +7407,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>20.36450126303604</v>
+        <v>20.30318791248001</v>
       </c>
       <c r="F32">
-        <v>22.24800561665715</v>
+        <v>22.25952581250911</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -7430,10 +7430,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>20.542955351834</v>
+        <v>20.42971131367553</v>
       </c>
       <c r="F33">
-        <v>22.55258293990436</v>
+        <v>22.54855742470113</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -7453,10 +7453,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>20.70687113363675</v>
+        <v>20.6132809669022</v>
       </c>
       <c r="F34">
-        <v>22.7591518003043</v>
+        <v>22.73785512487889</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -7476,10 +7476,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>20.87078126577146</v>
+        <v>20.77466047256654</v>
       </c>
       <c r="F35">
-        <v>22.99514860836875</v>
+        <v>23.01732974387469</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -7499,10 +7499,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>21.05666638502769</v>
+        <v>21.0538092335692</v>
       </c>
       <c r="F36">
-        <v>23.33489397935437</v>
+        <v>23.26559196006981</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -7522,10 +7522,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>21.27683959299361</v>
+        <v>21.2413444498544</v>
       </c>
       <c r="F37">
-        <v>23.68817544405568</v>
+        <v>23.58286949814013</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -7545,10 +7545,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>21.51769818955687</v>
+        <v>21.51369471212485</v>
       </c>
       <c r="F38">
-        <v>24.07089907595474</v>
+        <v>24.0120357178869</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -7568,10 +7568,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>21.73560270071948</v>
+        <v>21.68325101632648</v>
       </c>
       <c r="F39">
-        <v>24.58229405182984</v>
+        <v>24.63483120300987</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -7591,10 +7591,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>22.04856245272312</v>
+        <v>22.07241867486476</v>
       </c>
       <c r="F40">
-        <v>25.04415949445698</v>
+        <v>25.15546027859173</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -7614,10 +7614,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>22.40921593547368</v>
+        <v>22.37755296990175</v>
       </c>
       <c r="F41">
-        <v>25.7255827360533</v>
+        <v>25.65153205347489</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -7637,10 +7637,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>22.78176168031709</v>
+        <v>22.63443274239684</v>
       </c>
       <c r="F42">
-        <v>26.60572317083578</v>
+        <v>26.53306828468964</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -7660,10 +7660,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>23.25863448803285</v>
+        <v>23.17500184810124</v>
       </c>
       <c r="F43">
-        <v>27.85240880601489</v>
+        <v>27.51414602533664</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -7683,10 +7683,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>23.92469836257622</v>
+        <v>23.78111320971692</v>
       </c>
       <c r="F44">
-        <v>29.45717152740994</v>
+        <v>29.22651138247045</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -7706,10 +7706,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>24.76337010341695</v>
+        <v>24.9218150882164</v>
       </c>
       <c r="F45">
-        <v>33.42133184180912</v>
+        <v>32.84056013551884</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -7762,10 +7762,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>15.49245953186261</v>
+        <v>15.5490746003011</v>
       </c>
       <c r="F2">
-        <v>17.49619268049753</v>
+        <v>17.49451837435615</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -7785,10 +7785,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>16.26196051750616</v>
+        <v>16.27685672521029</v>
       </c>
       <c r="F3">
-        <v>17.82357402309642</v>
+        <v>17.84927740098083</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -7808,10 +7808,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>16.69895864118522</v>
+        <v>16.67309729182148</v>
       </c>
       <c r="F4">
-        <v>18.10509142344102</v>
+        <v>18.17315969364665</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -7831,10 +7831,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>16.98700244952312</v>
+        <v>16.94767845763808</v>
       </c>
       <c r="F5">
-        <v>18.32936032919718</v>
+        <v>18.31615427090597</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -7854,10 +7854,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>17.20663140275892</v>
+        <v>17.15967498752537</v>
       </c>
       <c r="F6">
-        <v>18.53314377412391</v>
+        <v>18.51439268113893</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -7877,10 +7877,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>17.39540701387963</v>
+        <v>17.36450860828322</v>
       </c>
       <c r="F7">
-        <v>18.67627888532154</v>
+        <v>18.67384542221537</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -7900,10 +7900,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>17.55116544113246</v>
+        <v>17.60614584299509</v>
       </c>
       <c r="F8">
-        <v>18.90276875236249</v>
+        <v>18.89753087438453</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -7923,10 +7923,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>17.75306748671843</v>
+        <v>17.79147042939591</v>
       </c>
       <c r="F9">
-        <v>19.05120278731763</v>
+        <v>19.01022587252475</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -7946,10 +7946,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>17.93190359549682</v>
+        <v>17.92091228791247</v>
       </c>
       <c r="F10">
-        <v>19.19953446526938</v>
+        <v>19.1463024337054</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -7969,10 +7969,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>18.05331067778928</v>
+        <v>18.07573646331743</v>
       </c>
       <c r="F11">
-        <v>19.34882182166723</v>
+        <v>19.30305916013833</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -7992,10 +7992,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>18.18859155433943</v>
+        <v>18.22234320226458</v>
       </c>
       <c r="F12">
-        <v>19.50411478808194</v>
+        <v>19.45406196455042</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -8015,10 +8015,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>18.36034678291643</v>
+        <v>18.32080147999795</v>
       </c>
       <c r="F13">
-        <v>19.65943267542279</v>
+        <v>19.60766928656352</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -8038,10 +8038,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>18.49292243263654</v>
+        <v>18.43851358247499</v>
       </c>
       <c r="F14">
-        <v>19.78607659470973</v>
+        <v>19.74994525164268</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -8061,10 +8061,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>18.61786608128971</v>
+        <v>18.63330041487247</v>
       </c>
       <c r="F15">
-        <v>19.90276243392547</v>
+        <v>19.90861746206906</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -8084,10 +8084,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>18.7428230055753</v>
+        <v>18.72684049697935</v>
       </c>
       <c r="F16">
-        <v>20.02779189540523</v>
+        <v>20.03565295641351</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -8107,10 +8107,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>18.8456694275205</v>
+        <v>18.83676741240891</v>
       </c>
       <c r="F17">
-        <v>20.20824394147595</v>
+        <v>20.16408857364726</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -8130,10 +8130,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>18.98098645874665</v>
+        <v>18.97815046699713</v>
       </c>
       <c r="F18">
-        <v>20.32875572415592</v>
+        <v>20.29093036348259</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -8153,10 +8153,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>19.08834925508408</v>
+        <v>19.1017518163601</v>
       </c>
       <c r="F19">
-        <v>20.47585364304573</v>
+        <v>20.46169389231357</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -8176,10 +8176,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>19.22607880674905</v>
+        <v>19.22052720208337</v>
       </c>
       <c r="F20">
-        <v>20.65270816479863</v>
+        <v>20.5650998852303</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -8199,10 +8199,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>19.32350374683117</v>
+        <v>19.33914260090451</v>
       </c>
       <c r="F21">
-        <v>20.77021123398793</v>
+        <v>20.74471098221775</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -8222,10 +8222,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>19.45304997145762</v>
+        <v>19.4772567260178</v>
       </c>
       <c r="F22">
-        <v>20.91862418633488</v>
+        <v>20.8692767350103</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -8245,10 +8245,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>19.55936130217216</v>
+        <v>19.5550479645964</v>
       </c>
       <c r="F23">
-        <v>21.05582318066806</v>
+        <v>21.01853009320427</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -8268,10 +8268,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>19.70524335427157</v>
+        <v>19.71530792874059</v>
       </c>
       <c r="F24">
-        <v>21.20348549826346</v>
+        <v>21.16464465930153</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -8291,10 +8291,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>19.82982333241084</v>
+        <v>19.85124511317667</v>
       </c>
       <c r="F25">
-        <v>21.37823007060781</v>
+        <v>21.33241998918403</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -8314,10 +8314,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>19.95574409541841</v>
+        <v>19.94999579176204</v>
       </c>
       <c r="F26">
-        <v>21.53534063453806</v>
+        <v>21.50574449382807</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -8337,10 +8337,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>20.10358671586989</v>
+        <v>20.07034062418965</v>
       </c>
       <c r="F27">
-        <v>21.67961208425363</v>
+        <v>21.68357782158269</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -8360,10 +8360,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>20.22122126298906</v>
+        <v>20.20513163215609</v>
       </c>
       <c r="F28">
-        <v>21.87229053635525</v>
+        <v>21.85471067223462</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -8383,10 +8383,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>20.35100089395425</v>
+        <v>20.3422967825757</v>
       </c>
       <c r="F29">
-        <v>22.03453959615817</v>
+        <v>22.06283505470578</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -8406,10 +8406,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>20.4785291457886</v>
+        <v>20.5195491497654</v>
       </c>
       <c r="F30">
-        <v>22.27711079919137</v>
+        <v>22.28118495338293</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -8429,10 +8429,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>20.63164868083845</v>
+        <v>20.63267848940623</v>
       </c>
       <c r="F31">
-        <v>22.44713647511814</v>
+        <v>22.51709540745322</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -8452,10 +8452,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>20.82598222897307</v>
+        <v>20.79721064026326</v>
       </c>
       <c r="F32">
-        <v>22.63611821008175</v>
+        <v>22.66169741553075</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -8475,10 +8475,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>20.98725049354015</v>
+        <v>20.93476693930308</v>
       </c>
       <c r="F33">
-        <v>22.88441632869111</v>
+        <v>22.90366248943057</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -8498,10 +8498,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>21.17302987210797</v>
+        <v>21.08757742562468</v>
       </c>
       <c r="F34">
-        <v>23.12609038643806</v>
+        <v>23.15256004049123</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -8521,10 +8521,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>21.28550221025008</v>
+        <v>21.32658467346462</v>
       </c>
       <c r="F35">
-        <v>23.40247624454165</v>
+        <v>23.39116951427913</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -8544,10 +8544,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>21.46765721130925</v>
+        <v>21.45698832083849</v>
       </c>
       <c r="F36">
-        <v>23.69654649829138</v>
+        <v>23.76617089797779</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -8567,10 +8567,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>21.6674310945969</v>
+        <v>21.64137634921912</v>
       </c>
       <c r="F37">
-        <v>24.02058190201589</v>
+        <v>24.11190899408379</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -8590,10 +8590,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>21.90381049425476</v>
+        <v>21.84287976841434</v>
       </c>
       <c r="F38">
-        <v>24.4718846623578</v>
+        <v>24.51212578526338</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -8613,10 +8613,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>22.16170197181799</v>
+        <v>22.18727349519927</v>
       </c>
       <c r="F39">
-        <v>24.80619928117495</v>
+        <v>24.82619014746112</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -8636,10 +8636,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>22.45179840536728</v>
+        <v>22.43948556839913</v>
       </c>
       <c r="F40">
-        <v>25.2958568515212</v>
+        <v>25.41452693175379</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -8659,10 +8659,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>22.86758332056493</v>
+        <v>22.84229747907053</v>
       </c>
       <c r="F41">
-        <v>25.87437406322827</v>
+        <v>26.15575517729568</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -8682,10 +8682,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>23.28525672428653</v>
+        <v>23.2105494726353</v>
       </c>
       <c r="F42">
-        <v>26.85470633929816</v>
+        <v>26.81046983889386</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -8705,10 +8705,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>23.67847832734187</v>
+        <v>23.70136395815959</v>
       </c>
       <c r="F43">
-        <v>27.93433853904673</v>
+        <v>27.79175167290421</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -8728,10 +8728,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>24.37100131267527</v>
+        <v>24.52387389118274</v>
       </c>
       <c r="F44">
-        <v>29.67457888742243</v>
+        <v>29.83495331971821</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -8751,10 +8751,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>25.32703620623446</v>
+        <v>25.33086428720277</v>
       </c>
       <c r="F45">
-        <v>33.60347559545163</v>
+        <v>33.80971722207952</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -8807,10 +8807,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>16.12516124320129</v>
+        <v>16.22196628798282</v>
       </c>
       <c r="F2">
-        <v>18.02415549558913</v>
+        <v>18.07691659916315</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -8830,10 +8830,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>16.86756995957565</v>
+        <v>16.83679354241792</v>
       </c>
       <c r="F3">
-        <v>18.39428680721102</v>
+        <v>18.45403425628396</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -8853,10 +8853,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>17.26597238052232</v>
+        <v>17.2653589381654</v>
       </c>
       <c r="F4">
-        <v>18.65722936119075</v>
+        <v>18.64153308358935</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -8876,10 +8876,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>17.55375498263295</v>
+        <v>17.55526594121092</v>
       </c>
       <c r="F5">
-        <v>18.88355372298937</v>
+        <v>18.88981162305141</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -8899,10 +8899,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>17.79511354914856</v>
+        <v>17.78951044800594</v>
       </c>
       <c r="F6">
-        <v>19.10511811624939</v>
+        <v>19.06903480982704</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -8922,10 +8922,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>18.01060118868836</v>
+        <v>17.97143693615575</v>
       </c>
       <c r="F7">
-        <v>19.27630004635091</v>
+        <v>19.21924035348282</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -8945,10 +8945,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>18.17200959093731</v>
+        <v>18.20097251192968</v>
       </c>
       <c r="F8">
-        <v>19.41790879791708</v>
+        <v>19.46363620125611</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -8968,10 +8968,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>18.33284070426712</v>
+        <v>18.33647845454157</v>
       </c>
       <c r="F9">
-        <v>19.59448851776171</v>
+        <v>19.58395524126329</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -8991,10 +8991,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>18.51973717322924</v>
+        <v>18.48000216894814</v>
       </c>
       <c r="F10">
-        <v>19.77546746509278</v>
+        <v>19.76602049202198</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -9014,10 +9014,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>18.66311900668662</v>
+        <v>18.62288823963283</v>
       </c>
       <c r="F11">
-        <v>19.87820700058728</v>
+        <v>19.89971462275487</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -9037,10 +9037,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>18.80232172386824</v>
+        <v>18.77636703230931</v>
       </c>
       <c r="F12">
-        <v>20.04232006562033</v>
+        <v>20.04300730960864</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -9060,10 +9060,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>18.91046242393759</v>
+        <v>18.88277251893584</v>
       </c>
       <c r="F13">
-        <v>20.16494931554225</v>
+        <v>20.16481147274162</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -9083,10 +9083,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>19.04052705822898</v>
+        <v>19.0162049153164</v>
       </c>
       <c r="F14">
-        <v>20.31457676391103</v>
+        <v>20.29970975832054</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -9106,10 +9106,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>19.15033671766053</v>
+        <v>19.14868858984741</v>
       </c>
       <c r="F15">
-        <v>20.42051434823388</v>
+        <v>20.41876696149217</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -9129,10 +9129,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>19.26793775751932</v>
+        <v>19.27369116855444</v>
       </c>
       <c r="F16">
-        <v>20.56673345357923</v>
+        <v>20.58143799709484</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -9152,10 +9152,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>19.38454540443668</v>
+        <v>19.37630827933318</v>
       </c>
       <c r="F17">
-        <v>20.70021556818344</v>
+        <v>20.67802135579983</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -9175,10 +9175,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>19.5147080115347</v>
+        <v>19.56522964808473</v>
       </c>
       <c r="F18">
-        <v>20.87626469378354</v>
+        <v>20.80392411134267</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -9198,10 +9198,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>19.65826144177112</v>
+        <v>19.66251890918173</v>
       </c>
       <c r="F19">
-        <v>21.02241739557782</v>
+        <v>20.96974558326038</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -9221,10 +9221,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>19.76878417392755</v>
+        <v>19.79790002821688</v>
       </c>
       <c r="F20">
-        <v>21.14565425698533</v>
+        <v>21.10583708634247</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -9244,10 +9244,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>19.87137581349888</v>
+        <v>19.92984159052822</v>
       </c>
       <c r="F21">
-        <v>21.27116605278269</v>
+        <v>21.28709161838885</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -9267,10 +9267,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>20.01734057082584</v>
+        <v>20.06602619453984</v>
       </c>
       <c r="F22">
-        <v>21.4247534981713</v>
+        <v>21.43103604473705</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -9290,10 +9290,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>20.14815075441449</v>
+        <v>20.17434616086114</v>
       </c>
       <c r="F23">
-        <v>21.58557135782031</v>
+        <v>21.58141889806245</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -9313,10 +9313,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>20.26001854816637</v>
+        <v>20.2873801165853</v>
       </c>
       <c r="F24">
-        <v>21.73125622216098</v>
+        <v>21.71676111002301</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -9336,10 +9336,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>20.38581076967906</v>
+        <v>20.36348324189539</v>
       </c>
       <c r="F25">
-        <v>21.91322070340436</v>
+        <v>21.89252884242767</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -9359,10 +9359,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>20.51788644911116</v>
+        <v>20.51086495181427</v>
       </c>
       <c r="F26">
-        <v>22.0689980561104</v>
+        <v>22.01205906605022</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -9382,10 +9382,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>20.62511091219777</v>
+        <v>20.64938839906273</v>
       </c>
       <c r="F27">
-        <v>22.24062693468258</v>
+        <v>22.15261656891355</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -9405,10 +9405,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>20.74585315881324</v>
+        <v>20.77622719721013</v>
       </c>
       <c r="F28">
-        <v>22.37906200587824</v>
+        <v>22.35546072029681</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -9428,10 +9428,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>20.87057397973185</v>
+        <v>20.92104415361326</v>
       </c>
       <c r="F29">
-        <v>22.58302626273884</v>
+        <v>22.5125317383665</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -9451,10 +9451,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>21.03725743204305</v>
+        <v>21.03607453861934</v>
       </c>
       <c r="F30">
-        <v>22.73953897494527</v>
+        <v>22.74022413134326</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -9474,10 +9474,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>21.17043308680667</v>
+        <v>21.16416475345405</v>
       </c>
       <c r="F31">
-        <v>22.97300076697852</v>
+        <v>22.87140288859355</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -9497,10 +9497,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>21.29446904485638</v>
+        <v>21.34707663688954</v>
       </c>
       <c r="F32">
-        <v>23.11368560974985</v>
+        <v>23.05433838955811</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -9520,10 +9520,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>21.45085127446986</v>
+        <v>21.56921622689944</v>
       </c>
       <c r="F33">
-        <v>23.38932709957932</v>
+        <v>23.36000353841971</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -9543,10 +9543,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>21.62672733446401</v>
+        <v>21.68602019606043</v>
       </c>
       <c r="F34">
-        <v>23.59346456515671</v>
+        <v>23.53101502520952</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -9566,10 +9566,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>21.80636068903505</v>
+        <v>21.91218637807056</v>
       </c>
       <c r="F35">
-        <v>23.86490322918857</v>
+        <v>23.91055551053079</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -9589,10 +9589,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>22.06966025743508</v>
+        <v>22.06438369627202</v>
       </c>
       <c r="F36">
-        <v>24.19708858424413</v>
+        <v>24.19591971738814</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -9612,10 +9612,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>22.23517471527527</v>
+        <v>22.30011684871764</v>
       </c>
       <c r="F37">
-        <v>24.50412422079006</v>
+        <v>24.48233526126155</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -9635,10 +9635,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>22.44019593223682</v>
+        <v>22.52560141224091</v>
       </c>
       <c r="F38">
-        <v>24.82566243529239</v>
+        <v>24.88977099062752</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -9658,10 +9658,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>22.67606788990905</v>
+        <v>22.78415080471912</v>
       </c>
       <c r="F39">
-        <v>25.24000757241026</v>
+        <v>25.32009801595107</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -9681,10 +9681,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>22.89767587498015</v>
+        <v>22.98778733451888</v>
       </c>
       <c r="F40">
-        <v>25.67196819520075</v>
+        <v>25.84334849428513</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -9704,10 +9704,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>23.22204906505184</v>
+        <v>23.27277355242118</v>
       </c>
       <c r="F41">
-        <v>26.17110049224498</v>
+        <v>26.36459505440976</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -9727,10 +9727,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>23.57430404587836</v>
+        <v>23.67045385580596</v>
       </c>
       <c r="F42">
-        <v>26.95863326483733</v>
+        <v>27.25970552012261</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -9750,10 +9750,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>24.05904827545639</v>
+        <v>24.06539831534772</v>
       </c>
       <c r="F43">
-        <v>28.16192691778872</v>
+        <v>28.40009904862612</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -9773,10 +9773,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>24.73036444456308</v>
+        <v>24.63209181184054</v>
       </c>
       <c r="F44">
-        <v>29.79230416484721</v>
+        <v>30.10710098945333</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -9796,10 +9796,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>25.7609616819891</v>
+        <v>25.55726572048873</v>
       </c>
       <c r="F45">
-        <v>33.95743927358075</v>
+        <v>34.60397542968099</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -9852,10 +9852,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>17.09939779171579</v>
+        <v>17.09023435039755</v>
       </c>
       <c r="F2">
-        <v>18.8574188031467</v>
+        <v>18.82245579269888</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -9875,10 +9875,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>17.77448942761415</v>
+        <v>17.74458710585384</v>
       </c>
       <c r="F3">
-        <v>19.17652715838742</v>
+        <v>19.09683593856391</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -9898,10 +9898,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>18.13534555174327</v>
+        <v>18.10673506243792</v>
       </c>
       <c r="F4">
-        <v>19.41562201867381</v>
+        <v>19.43438607525053</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -9921,10 +9921,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>18.37001916299805</v>
+        <v>18.33398209753517</v>
       </c>
       <c r="F5">
-        <v>19.59750879866742</v>
+        <v>19.59104137299511</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -9944,10 +9944,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>18.56442369149904</v>
+        <v>18.57285939996915</v>
       </c>
       <c r="F6">
-        <v>19.78553428395998</v>
+        <v>19.76794131562669</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -9967,10 +9967,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>18.78475766981543</v>
+        <v>18.7289104467017</v>
       </c>
       <c r="F7">
-        <v>19.96726264302403</v>
+        <v>19.93155089112881</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -9990,10 +9990,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>18.94243396176435</v>
+        <v>18.9534884328679</v>
       </c>
       <c r="F8">
-        <v>20.13101026626803</v>
+        <v>20.09806080623429</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -10013,10 +10013,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>19.09789388776744</v>
+        <v>19.09331120354113</v>
       </c>
       <c r="F9">
-        <v>20.26232086572804</v>
+        <v>20.23079023649071</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -10036,10 +10036,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>19.2474077444429</v>
+        <v>19.20301015860992</v>
       </c>
       <c r="F10">
-        <v>20.39446193078775</v>
+        <v>20.39558368800096</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -10059,10 +10059,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>19.35995772874754</v>
+        <v>19.37041336859951</v>
       </c>
       <c r="F11">
-        <v>20.52823538011978</v>
+        <v>20.52462778927402</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -10082,10 +10082,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>19.48491287535359</v>
+        <v>19.49715778816876</v>
       </c>
       <c r="F12">
-        <v>20.62028438629794</v>
+        <v>20.64929391520408</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -10105,10 +10105,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>19.5812509137458</v>
+        <v>19.6129819840877</v>
       </c>
       <c r="F13">
-        <v>20.75576730886383</v>
+        <v>20.78063632942164</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -10128,10 +10128,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>19.69871942387068</v>
+        <v>19.69745534944556</v>
       </c>
       <c r="F14">
-        <v>20.89406433047897</v>
+        <v>20.86227482589479</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -10151,10 +10151,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>19.80530417421388</v>
+        <v>19.84387034980098</v>
       </c>
       <c r="F15">
-        <v>21.04676765320249</v>
+        <v>21.03203814317234</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -10174,10 +10174,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>19.89461411717389</v>
+        <v>19.93187677892919</v>
       </c>
       <c r="F16">
-        <v>21.18708840071985</v>
+        <v>21.16692063145073</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -10197,10 +10197,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>20.0317852404918</v>
+        <v>20.0451491032256</v>
       </c>
       <c r="F17">
-        <v>21.30894637549409</v>
+        <v>21.28340809625561</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -10220,10 +10220,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>20.15440468507257</v>
+        <v>20.16059804601572</v>
       </c>
       <c r="F18">
-        <v>21.43963899364832</v>
+        <v>21.43238528023299</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -10243,10 +10243,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>20.24785813140103</v>
+        <v>20.29207269074099</v>
       </c>
       <c r="F19">
-        <v>21.53779562879616</v>
+        <v>21.53344218705444</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -10266,10 +10266,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>20.37236777856372</v>
+        <v>20.36471334163208</v>
       </c>
       <c r="F20">
-        <v>21.67701800379869</v>
+        <v>21.63753120029821</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -10289,10 +10289,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>20.46331284056355</v>
+        <v>20.49846324181726</v>
       </c>
       <c r="F21">
-        <v>21.82059420198624</v>
+        <v>21.79068408731966</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -10312,10 +10312,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>20.56137073213365</v>
+        <v>20.58212212993082</v>
       </c>
       <c r="F22">
-        <v>21.9518880615623</v>
+        <v>21.9051589486944</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -10335,10 +10335,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>20.70581336431848</v>
+        <v>20.72617792243072</v>
       </c>
       <c r="F23">
-        <v>22.0755123588759</v>
+        <v>22.05905938665118</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -10358,10 +10358,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>20.8061371264129</v>
+        <v>20.83589532683407</v>
       </c>
       <c r="F24">
-        <v>22.20857499824849</v>
+        <v>22.17967288738802</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -10381,10 +10381,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>20.90521570236302</v>
+        <v>20.97253925572025</v>
       </c>
       <c r="F25">
-        <v>22.42101775658913</v>
+        <v>22.29281572487761</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -10404,10 +10404,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>21.00785535989536</v>
+        <v>21.05058027221215</v>
       </c>
       <c r="F26">
-        <v>22.51659442597283</v>
+        <v>22.39563834181403</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -10427,10 +10427,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>21.13443256248776</v>
+        <v>21.16695444513013</v>
       </c>
       <c r="F27">
-        <v>22.69242380459761</v>
+        <v>22.53222209065742</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -10450,10 +10450,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>21.27014248847239</v>
+        <v>21.28615533995952</v>
       </c>
       <c r="F28">
-        <v>22.84069296063839</v>
+        <v>22.6700446034468</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -10473,10 +10473,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>21.36961652969373</v>
+        <v>21.39815786986293</v>
       </c>
       <c r="F29">
-        <v>23.01177291990956</v>
+        <v>22.84451575800666</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -10496,10 +10496,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>21.50485865120019</v>
+        <v>21.56391675753839</v>
       </c>
       <c r="F30">
-        <v>23.16159055886409</v>
+        <v>23.08474193977509</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -10519,10 +10519,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>21.64534673779126</v>
+        <v>21.66973118475243</v>
       </c>
       <c r="F31">
-        <v>23.32528240863953</v>
+        <v>23.26376106528213</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -10542,10 +10542,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>21.80251192648432</v>
+        <v>21.80144492916732</v>
       </c>
       <c r="F32">
-        <v>23.56456351581055</v>
+        <v>23.44101672145827</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -10565,10 +10565,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>21.96716176966165</v>
+        <v>21.93162287714878</v>
       </c>
       <c r="F33">
-        <v>23.75470477847439</v>
+        <v>23.67752931157267</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -10588,10 +10588,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>22.10827844799989</v>
+        <v>22.15487409808545</v>
       </c>
       <c r="F34">
-        <v>23.98977656261719</v>
+        <v>23.90073072614124</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -10611,10 +10611,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>22.29548470859841</v>
+        <v>22.28743278092797</v>
       </c>
       <c r="F35">
-        <v>24.2572840567894</v>
+        <v>24.18376364751429</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -10634,10 +10634,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>22.45222256033865</v>
+        <v>22.44707155576937</v>
       </c>
       <c r="F36">
-        <v>24.50094942793688</v>
+        <v>24.40903251585733</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -10657,10 +10657,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>22.62504635291415</v>
+        <v>22.56781708932147</v>
       </c>
       <c r="F37">
-        <v>24.80393365275211</v>
+        <v>24.78275163874441</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -10680,10 +10680,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>22.7898060534772</v>
+        <v>22.81388568217609</v>
       </c>
       <c r="F38">
-        <v>25.18307253187709</v>
+        <v>25.08650010713271</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -10703,10 +10703,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>22.98219304655129</v>
+        <v>23.04120715463354</v>
       </c>
       <c r="F39">
-        <v>25.60353610785964</v>
+        <v>25.49552185832421</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -10726,10 +10726,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>23.2356522096593</v>
+        <v>23.33015023859841</v>
       </c>
       <c r="F40">
-        <v>25.98490680813426</v>
+        <v>25.86279043623944</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -10749,10 +10749,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>23.53141480927316</v>
+        <v>23.70203557514404</v>
       </c>
       <c r="F41">
-        <v>26.62772404992477</v>
+        <v>26.60014243961786</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -10772,10 +10772,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>23.90139744931635</v>
+        <v>24.00553085787579</v>
       </c>
       <c r="F42">
-        <v>27.3395149705632</v>
+        <v>27.44273390056967</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -10795,10 +10795,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>24.29282456045193</v>
+        <v>24.43300680833252</v>
       </c>
       <c r="F43">
-        <v>28.30428578914419</v>
+        <v>28.11820083484849</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -10818,10 +10818,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>24.90885699970025</v>
+        <v>24.99302786989826</v>
       </c>
       <c r="F44">
-        <v>29.83314643891709</v>
+        <v>30.03867829956585</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -10841,10 +10841,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>25.72489012225267</v>
+        <v>25.80362446603104</v>
       </c>
       <c r="F45">
-        <v>33.00835944229916</v>
+        <v>33.31633237730419</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -10897,10 +10897,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>17.5251084050423</v>
+        <v>17.37980905768693</v>
       </c>
       <c r="F2">
-        <v>19.42598949765581</v>
+        <v>19.3512435028506</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -10920,10 +10920,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>18.16662044438463</v>
+        <v>18.19167028139954</v>
       </c>
       <c r="F3">
-        <v>19.77279433796507</v>
+        <v>19.71635781544551</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -10943,10 +10943,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>18.53596009634965</v>
+        <v>18.62614601004094</v>
       </c>
       <c r="F4">
-        <v>20.05722877818049</v>
+        <v>20.07604160861103</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -10966,10 +10966,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>18.8501738275678</v>
+        <v>18.91256619213691</v>
       </c>
       <c r="F5">
-        <v>20.26340838234306</v>
+        <v>20.29115523514416</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -10989,10 +10989,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>19.10581532122709</v>
+        <v>19.13889906769787</v>
       </c>
       <c r="F6">
-        <v>20.43886725629115</v>
+        <v>20.51173229943697</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -11012,10 +11012,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>19.30946679161566</v>
+        <v>19.37363264182445</v>
       </c>
       <c r="F7">
-        <v>20.62372463848705</v>
+        <v>20.72110479157482</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -11035,10 +11035,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>19.5126205314268</v>
+        <v>19.5822215034366</v>
       </c>
       <c r="F8">
-        <v>20.78732283141098</v>
+        <v>20.85095621108966</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -11058,10 +11058,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>19.67842403376795</v>
+        <v>19.75724240872452</v>
       </c>
       <c r="F9">
-        <v>20.95013362496593</v>
+        <v>20.97950869127183</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -11081,10 +11081,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>19.83392357594407</v>
+        <v>19.88697616755491</v>
       </c>
       <c r="F10">
-        <v>21.09537766319417</v>
+        <v>21.1937497846258</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -11104,10 +11104,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>19.94807219837623</v>
+        <v>20.01517173375652</v>
       </c>
       <c r="F11">
-        <v>21.22737879396604</v>
+        <v>21.31403085679895</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -11127,10 +11127,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>20.07946065728349</v>
+        <v>20.15324604872389</v>
       </c>
       <c r="F12">
-        <v>21.36815406477756</v>
+        <v>21.44969272798263</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -11150,10 +11150,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>20.19903048110865</v>
+        <v>20.28923462835783</v>
       </c>
       <c r="F13">
-        <v>21.5432513330714</v>
+        <v>21.56027619541964</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -11173,10 +11173,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>20.31387604529385</v>
+        <v>20.42488907041519</v>
       </c>
       <c r="F14">
-        <v>21.65652760429692</v>
+        <v>21.71661952761167</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -11196,10 +11196,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>20.47675032372834</v>
+        <v>20.53825744717419</v>
       </c>
       <c r="F15">
-        <v>21.80329731415112</v>
+        <v>21.8065083975479</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -11219,10 +11219,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>20.62337005237092</v>
+        <v>20.63484681718202</v>
       </c>
       <c r="F16">
-        <v>21.95159362925833</v>
+        <v>21.99563027718931</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -11242,10 +11242,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>20.71726185437901</v>
+        <v>20.71580787326806</v>
       </c>
       <c r="F17">
-        <v>22.08304667748896</v>
+        <v>22.13544668858774</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -11265,10 +11265,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>20.84833683645626</v>
+        <v>20.855896244673</v>
       </c>
       <c r="F18">
-        <v>22.18079465062408</v>
+        <v>22.28700414152263</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -11288,10 +11288,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>20.96455868498481</v>
+        <v>20.94673784787382</v>
       </c>
       <c r="F19">
-        <v>22.3338994174418</v>
+        <v>22.38576104053881</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -11311,10 +11311,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>21.07178940151416</v>
+        <v>21.05270638829212</v>
       </c>
       <c r="F20">
-        <v>22.47994804736009</v>
+        <v>22.54532230854865</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -11334,10 +11334,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>21.1937192322367</v>
+        <v>21.20243077368895</v>
       </c>
       <c r="F21">
-        <v>22.61208413089952</v>
+        <v>22.68495965918825</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -11357,10 +11357,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>21.31076963785081</v>
+        <v>21.32824316168706</v>
       </c>
       <c r="F22">
-        <v>22.76471347710877</v>
+        <v>22.7800397308581</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -11380,10 +11380,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>21.42917226752933</v>
+        <v>21.46120624146491</v>
       </c>
       <c r="F23">
-        <v>22.90237181589971</v>
+        <v>22.94483672289913</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -11403,10 +11403,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>21.56287065856903</v>
+        <v>21.59342367378033</v>
       </c>
       <c r="F24">
-        <v>23.04104155640973</v>
+        <v>23.05150292724154</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -11426,10 +11426,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>21.67311817258062</v>
+        <v>21.74319665240284</v>
       </c>
       <c r="F25">
-        <v>23.21212371030968</v>
+        <v>23.24924570909541</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -11449,10 +11449,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>21.81673511643987</v>
+        <v>21.82665471307247</v>
       </c>
       <c r="F26">
-        <v>23.38871756787372</v>
+        <v>23.3972066716366</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -11472,10 +11472,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>21.94688249179086</v>
+        <v>21.89710940622916</v>
       </c>
       <c r="F27">
-        <v>23.55505449627494</v>
+        <v>23.55970509836524</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -11495,10 +11495,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>22.09152351763985</v>
+        <v>22.02855281721036</v>
       </c>
       <c r="F28">
-        <v>23.76735250562382</v>
+        <v>23.78444010380805</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -11518,10 +11518,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>22.21513869354777</v>
+        <v>22.15998957071876</v>
       </c>
       <c r="F29">
-        <v>23.93765124342545</v>
+        <v>23.92830170456605</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -11541,10 +11541,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>22.38045349043834</v>
+        <v>22.31898349340403</v>
       </c>
       <c r="F30">
-        <v>24.15272177106096</v>
+        <v>24.12290595769982</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -11564,10 +11564,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>22.56886774196759</v>
+        <v>22.48154242144389</v>
       </c>
       <c r="F31">
-        <v>24.3165917082339</v>
+        <v>24.27461803696899</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -11587,10 +11587,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>22.73439233702173</v>
+        <v>22.61299512227055</v>
       </c>
       <c r="F32">
-        <v>24.4803719712776</v>
+        <v>24.53086946103608</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -11610,10 +11610,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>22.88641787092363</v>
+        <v>22.76041943990596</v>
       </c>
       <c r="F33">
-        <v>24.75216334678117</v>
+        <v>24.7359827847431</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -11633,10 +11633,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>23.01279221101452</v>
+        <v>22.96274812344766</v>
       </c>
       <c r="F34">
-        <v>24.98459304107509</v>
+        <v>25.04923545034906</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -11656,10 +11656,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>23.18508504673772</v>
+        <v>23.13283077155534</v>
       </c>
       <c r="F35">
-        <v>25.26937909045467</v>
+        <v>25.27291302066238</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -11679,10 +11679,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>23.38040191793453</v>
+        <v>23.31704360264382</v>
       </c>
       <c r="F36">
-        <v>25.57628572914953</v>
+        <v>25.5673557361994</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -11702,10 +11702,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>23.54867964657759</v>
+        <v>23.5316640077376</v>
       </c>
       <c r="F37">
-        <v>25.93211310820605</v>
+        <v>25.86251654546378</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -11725,10 +11725,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>23.73246226703917</v>
+        <v>23.72378567759223</v>
       </c>
       <c r="F38">
-        <v>26.24433560692836</v>
+        <v>26.17353173021995</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -11748,10 +11748,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>23.98411566691123</v>
+        <v>24.03951163628788</v>
       </c>
       <c r="F39">
-        <v>26.57875115649402</v>
+        <v>26.70892826095986</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -11771,10 +11771,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>24.29168738102005</v>
+        <v>24.2384307040365</v>
       </c>
       <c r="F40">
-        <v>27.07473343805037</v>
+        <v>27.34373130093277</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -11794,10 +11794,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>24.63703528697841</v>
+        <v>24.58730249857068</v>
       </c>
       <c r="F41">
-        <v>27.72186137816081</v>
+        <v>27.91259158828856</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -11817,10 +11817,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>24.97944614760186</v>
+        <v>24.97947526961408</v>
       </c>
       <c r="F42">
-        <v>28.5266494404691</v>
+        <v>28.707812748085</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -11840,10 +11840,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>25.55706532790412</v>
+        <v>25.52255700476772</v>
       </c>
       <c r="F43">
-        <v>29.80013863544964</v>
+        <v>29.61655918668604</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -11863,10 +11863,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>26.14608560550985</v>
+        <v>26.04729091806689</v>
       </c>
       <c r="F44">
-        <v>31.54753854595276</v>
+        <v>31.35270056789344</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -11886,10 +11886,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>27.09279757244892</v>
+        <v>26.93464391235328</v>
       </c>
       <c r="F45">
-        <v>35.46901223222238</v>
+        <v>35.58725464457021</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -11942,10 +11942,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>19.5313841811532</v>
+        <v>19.52107998278191</v>
       </c>
       <c r="F2">
-        <v>22.15459160301778</v>
+        <v>22.08577656912687</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -11965,10 +11965,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>20.55335310813975</v>
+        <v>20.59903907800623</v>
       </c>
       <c r="F3">
-        <v>22.68346741346973</v>
+        <v>22.66176343707253</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -11988,10 +11988,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>21.07214692808598</v>
+        <v>21.11153296561205</v>
       </c>
       <c r="F4">
-        <v>23.0399545012605</v>
+        <v>23.00317087608482</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -12011,10 +12011,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>21.4781894799914</v>
+        <v>21.46221797771814</v>
       </c>
       <c r="F5">
-        <v>23.43304629955873</v>
+        <v>23.25457354653287</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -12034,10 +12034,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>21.7967590828215</v>
+        <v>21.74442350602779</v>
       </c>
       <c r="F6">
-        <v>23.65424600642843</v>
+        <v>23.57036976338258</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -12057,10 +12057,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>22.0810131365505</v>
+        <v>22.04135635653655</v>
       </c>
       <c r="F7">
-        <v>23.87954627606333</v>
+        <v>23.86641694072459</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -12080,10 +12080,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>22.31774093953679</v>
+        <v>22.34313628213373</v>
       </c>
       <c r="F8">
-        <v>24.13061598817815</v>
+        <v>24.11921266898562</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -12103,10 +12103,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>22.55877065743181</v>
+        <v>22.58496996797151</v>
       </c>
       <c r="F9">
-        <v>24.38754824578162</v>
+        <v>24.33738192656386</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -12126,10 +12126,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>22.8093670292408</v>
+        <v>22.80095715491776</v>
       </c>
       <c r="F10">
-        <v>24.57244340341333</v>
+        <v>24.49543161635641</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -12149,10 +12149,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>22.98378826859461</v>
+        <v>22.99509746871546</v>
       </c>
       <c r="F11">
-        <v>24.76013047993673</v>
+        <v>24.72012464722147</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -12172,10 +12172,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>23.17134486242163</v>
+        <v>23.18261398860457</v>
       </c>
       <c r="F12">
-        <v>24.98601276532363</v>
+        <v>24.90619409745296</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -12195,10 +12195,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>23.34434277715907</v>
+        <v>23.40515522330131</v>
       </c>
       <c r="F13">
-        <v>25.19193512306819</v>
+        <v>25.14763881339185</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -12218,10 +12218,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>23.54612391258543</v>
+        <v>23.5867769968334</v>
       </c>
       <c r="F14">
-        <v>25.37637152128879</v>
+        <v>25.35311879355694</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -12241,10 +12241,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>23.70316186659443</v>
+        <v>23.77282260854815</v>
       </c>
       <c r="F15">
-        <v>25.52189523571242</v>
+        <v>25.4433466236097</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -12264,10 +12264,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>23.87544173811148</v>
+        <v>23.87962846256028</v>
       </c>
       <c r="F16">
-        <v>25.73432637897696</v>
+        <v>25.60010013829003</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -12287,10 +12287,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>24.0570674127463</v>
+        <v>24.05620588390642</v>
       </c>
       <c r="F17">
-        <v>25.92484802940366</v>
+        <v>25.8641408578158</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -12310,10 +12310,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>24.21576058639858</v>
+        <v>24.20608904760763</v>
       </c>
       <c r="F18">
-        <v>26.14426826341436</v>
+        <v>26.08016799988105</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -12333,10 +12333,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>24.37102692918635</v>
+        <v>24.35168630803669</v>
       </c>
       <c r="F19">
-        <v>26.33795113571799</v>
+        <v>26.28119665918967</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -12356,10 +12356,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>24.5572072516024</v>
+        <v>24.57505717022702</v>
       </c>
       <c r="F20">
-        <v>26.52832897875372</v>
+        <v>26.45090601363291</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -12379,10 +12379,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>24.73148433880738</v>
+        <v>24.73222388452774</v>
       </c>
       <c r="F21">
-        <v>26.72356223164724</v>
+        <v>26.63750750083754</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -12402,10 +12402,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>24.86961940210904</v>
+        <v>24.9158751883244</v>
       </c>
       <c r="F22">
-        <v>26.90902487097912</v>
+        <v>26.89517510142283</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -12425,10 +12425,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>25.06540504857833</v>
+        <v>25.08733630852735</v>
       </c>
       <c r="F23">
-        <v>27.04931550287832</v>
+        <v>27.09562757379895</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -12448,10 +12448,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>25.20109278789849</v>
+        <v>25.20436976595379</v>
       </c>
       <c r="F24">
-        <v>27.30422240326501</v>
+        <v>27.28753616593594</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -12471,10 +12471,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>25.40467886158828</v>
+        <v>25.34921143336033</v>
       </c>
       <c r="F25">
-        <v>27.49566832156054</v>
+        <v>27.48705558944552</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -12494,10 +12494,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>25.5547655687886</v>
+        <v>25.50807029287217</v>
       </c>
       <c r="F26">
-        <v>27.72659623310882</v>
+        <v>27.72280556385675</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -12517,10 +12517,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>25.73853276903978</v>
+        <v>25.69129897630472</v>
       </c>
       <c r="F27">
-        <v>27.90131199098745</v>
+        <v>27.98395671249858</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -12540,10 +12540,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>25.93518679121828</v>
+        <v>25.86988098790886</v>
       </c>
       <c r="F28">
-        <v>28.17290862632433</v>
+        <v>28.29624334029935</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -12563,10 +12563,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>26.12102761554693</v>
+        <v>26.06989889784161</v>
       </c>
       <c r="F29">
-        <v>28.36615973806285</v>
+        <v>28.47058462686908</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -12586,10 +12586,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>26.31910454922453</v>
+        <v>26.28688842447971</v>
       </c>
       <c r="F30">
-        <v>28.65288131272484</v>
+        <v>28.7886010522517</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -12609,10 +12609,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>26.48779561717532</v>
+        <v>26.50847880872801</v>
       </c>
       <c r="F31">
-        <v>28.90338938072008</v>
+        <v>29.04079369408103</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -12632,10 +12632,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>26.68065207227857</v>
+        <v>26.73096670751313</v>
       </c>
       <c r="F32">
-        <v>29.24175634684638</v>
+        <v>29.42600370925323</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -12655,10 +12655,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>26.90328061656938</v>
+        <v>27.0524437239911</v>
       </c>
       <c r="F33">
-        <v>29.57016898065399</v>
+        <v>29.76373235866428</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -12678,10 +12678,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>27.10539623327606</v>
+        <v>27.19511452920553</v>
       </c>
       <c r="F34">
-        <v>29.93459767551858</v>
+        <v>30.01646372821059</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -12701,10 +12701,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>27.37299220792151</v>
+        <v>27.42527934624153</v>
       </c>
       <c r="F35">
-        <v>30.21710387465862</v>
+        <v>30.40910242440698</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -12724,10 +12724,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>27.61005673590306</v>
+        <v>27.74241773985833</v>
       </c>
       <c r="F36">
-        <v>30.71422963450542</v>
+        <v>30.80597652286285</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -12747,10 +12747,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>27.85300384102774</v>
+        <v>28.03857679195551</v>
       </c>
       <c r="F37">
-        <v>31.22849394750139</v>
+        <v>31.31318833862174</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -12770,10 +12770,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>28.16484562020082</v>
+        <v>28.27971665486734</v>
       </c>
       <c r="F38">
-        <v>31.71599220000951</v>
+        <v>31.85623214283548</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -12793,10 +12793,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>28.53724634664139</v>
+        <v>28.68081328698477</v>
       </c>
       <c r="F39">
-        <v>32.29209291592507</v>
+        <v>32.44720082439226</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -12816,10 +12816,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>28.8904658665973</v>
+        <v>28.96483257053708</v>
       </c>
       <c r="F40">
-        <v>32.84471634397648</v>
+        <v>33.12048579583091</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -12839,10 +12839,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>29.31015095705495</v>
+        <v>29.40493957989246</v>
       </c>
       <c r="F41">
-        <v>33.76668085859136</v>
+        <v>34.10689975097391</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -12862,10 +12862,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>29.81827579339338</v>
+        <v>29.93276755646222</v>
       </c>
       <c r="F42">
-        <v>34.94223232983952</v>
+        <v>35.0547477663799</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -12885,10 +12885,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>30.53308552357606</v>
+        <v>30.65000165859906</v>
       </c>
       <c r="F43">
-        <v>36.34903219385952</v>
+        <v>36.36258272959551</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -12908,10 +12908,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>31.3338060767284</v>
+        <v>31.56963711484571</v>
       </c>
       <c r="F44">
-        <v>38.72843096167339</v>
+        <v>39.08759435885439</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -12931,10 +12931,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>32.66341774461321</v>
+        <v>33.04533014428441</v>
       </c>
       <c r="F45">
-        <v>44.30846745440726</v>
+        <v>44.80359319772547</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
@@ -12987,10 +12987,10 @@
         <v>0.01136363636363636</v>
       </c>
       <c r="E2">
-        <v>21.63853482814736</v>
+        <v>21.56712953529174</v>
       </c>
       <c r="F2">
-        <v>24.06655093680153</v>
+        <v>24.0522827814388</v>
       </c>
       <c r="G2">
         <v>1.011494252873563</v>
@@ -13010,10 +13010,10 @@
         <v>0.03409090909090909</v>
       </c>
       <c r="E3">
-        <v>22.51960258916723</v>
+        <v>22.56399263878818</v>
       </c>
       <c r="F3">
-        <v>24.5926941472527</v>
+        <v>24.54966556749369</v>
       </c>
       <c r="G3">
         <v>1.035294117647059</v>
@@ -13033,10 +13033,10 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="E4">
-        <v>23.06966143885238</v>
+        <v>23.11052084991488</v>
       </c>
       <c r="F4">
-        <v>24.92427524737224</v>
+        <v>24.92803931585467</v>
       </c>
       <c r="G4">
         <v>1.060240963855422</v>
@@ -13056,10 +13056,10 @@
         <v>0.07954545454545454</v>
       </c>
       <c r="E5">
-        <v>23.45057768275816</v>
+        <v>23.46417678932362</v>
       </c>
       <c r="F5">
-        <v>25.24284974524829</v>
+        <v>25.21101949266306</v>
       </c>
       <c r="G5">
         <v>1.08641975308642</v>
@@ -13079,10 +13079,10 @@
         <v>0.1022727272727273</v>
       </c>
       <c r="E6">
-        <v>23.76662419992858</v>
+        <v>23.77095386415509</v>
       </c>
       <c r="F6">
-        <v>25.49542691384607</v>
+        <v>25.39486527409406</v>
       </c>
       <c r="G6">
         <v>1.113924050632911</v>
@@ -13102,10 +13102,10 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>24.04063718149029</v>
+        <v>23.99158692000183</v>
       </c>
       <c r="F7">
-        <v>25.69020711385664</v>
+        <v>25.64946400883434</v>
       </c>
       <c r="G7">
         <v>1.142857142857143</v>
@@ -13125,10 +13125,10 @@
         <v>0.1477272727272727</v>
       </c>
       <c r="E8">
-        <v>24.2697362191373</v>
+        <v>24.23420050016093</v>
       </c>
       <c r="F8">
-        <v>25.93143218867202</v>
+        <v>25.8124594355733</v>
       </c>
       <c r="G8">
         <v>1.173333333333333</v>
@@ -13148,10 +13148,10 @@
         <v>0.1704545454545454</v>
       </c>
       <c r="E9">
-        <v>24.45243224995537</v>
+        <v>24.44381916749682</v>
       </c>
       <c r="F9">
-        <v>26.12841933801269</v>
+        <v>26.01924958790865</v>
       </c>
       <c r="G9">
         <v>1.205479452054794</v>
@@ -13171,10 +13171,10 @@
         <v>0.1931818181818182</v>
       </c>
       <c r="E10">
-        <v>24.6828118020538</v>
+        <v>24.57925879170034</v>
       </c>
       <c r="F10">
-        <v>26.31278665184524</v>
+        <v>26.2317099754168</v>
       </c>
       <c r="G10">
         <v>1.23943661971831</v>
@@ -13194,10 +13194,10 @@
         <v>0.2159090909090909</v>
       </c>
       <c r="E11">
-        <v>24.84440043658357</v>
+        <v>24.85316518593946</v>
       </c>
       <c r="F11">
-        <v>26.5197326855705</v>
+        <v>26.46379421928406</v>
       </c>
       <c r="G11">
         <v>1.27536231884058</v>
@@ -13217,10 +13217,10 @@
         <v>0.2386363636363636</v>
       </c>
       <c r="E12">
-        <v>25.00507980739469</v>
+        <v>25.01601252842831</v>
       </c>
       <c r="F12">
-        <v>26.66364762470084</v>
+        <v>26.61331186986655</v>
       </c>
       <c r="G12">
         <v>1.313432835820896</v>
@@ -13240,10 +13240,10 @@
         <v>0.2613636363636364</v>
       </c>
       <c r="E13">
-        <v>25.18536948123739</v>
+        <v>25.17740704652996</v>
       </c>
       <c r="F13">
-        <v>26.91514425292103</v>
+        <v>26.83616796140627</v>
       </c>
       <c r="G13">
         <v>1.353846153846154</v>
@@ -13263,10 +13263,10 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="E14">
-        <v>25.33339845824901</v>
+        <v>25.31620096430916</v>
       </c>
       <c r="F14">
-        <v>27.06041152492048</v>
+        <v>26.98259457613132</v>
       </c>
       <c r="G14">
         <v>1.396825396825397</v>
@@ -13286,10 +13286,10 @@
         <v>0.3068181818181818</v>
       </c>
       <c r="E15">
-        <v>25.50261273850386</v>
+        <v>25.50679858148384</v>
       </c>
       <c r="F15">
-        <v>27.2324316803854</v>
+        <v>27.17819075318829</v>
       </c>
       <c r="G15">
         <v>1.442622950819672</v>
@@ -13309,10 +13309,10 @@
         <v>0.3295454545454545</v>
       </c>
       <c r="E16">
-        <v>25.67192493639758</v>
+        <v>25.64454438984473</v>
       </c>
       <c r="F16">
-        <v>27.40826596801018</v>
+        <v>27.32704581016995</v>
       </c>
       <c r="G16">
         <v>1.491525423728814</v>
@@ -13332,10 +13332,10 @@
         <v>0.3522727272727273</v>
       </c>
       <c r="E17">
-        <v>25.87194550262176</v>
+        <v>25.8036070910446</v>
       </c>
       <c r="F17">
-        <v>27.55908994251574</v>
+        <v>27.58146284100762</v>
       </c>
       <c r="G17">
         <v>1.543859649122807</v>
@@ -13355,10 +13355,10 @@
         <v>0.375</v>
       </c>
       <c r="E18">
-        <v>26.04230665191178</v>
+        <v>25.98332357684255</v>
       </c>
       <c r="F18">
-        <v>27.75732413373745</v>
+        <v>27.77322130678577</v>
       </c>
       <c r="G18">
         <v>1.6</v>
@@ -13378,10 +13378,10 @@
         <v>0.3977272727272727</v>
       </c>
       <c r="E19">
-        <v>26.1896020343871</v>
+        <v>26.15345091336942</v>
       </c>
       <c r="F19">
-        <v>27.92566998370222</v>
+        <v>27.96857529616127</v>
       </c>
       <c r="G19">
         <v>1.660377358490566</v>
@@ -13401,10 +13401,10 @@
         <v>0.4204545454545455</v>
       </c>
       <c r="E20">
-        <v>26.34566445972498</v>
+        <v>26.26475017919063</v>
       </c>
       <c r="F20">
-        <v>28.0903682586229</v>
+        <v>28.16705652649595</v>
       </c>
       <c r="G20">
         <v>1.725490196078431</v>
@@ -13424,10 +13424,10 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="E21">
-        <v>26.46051390987957</v>
+        <v>26.4324260325586</v>
       </c>
       <c r="F21">
-        <v>28.31985423265662</v>
+        <v>28.35621360768234</v>
       </c>
       <c r="G21">
         <v>1.795918367346939</v>
@@ -13447,10 +13447,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="E22">
-        <v>26.65547103615261</v>
+        <v>26.58533012465361</v>
       </c>
       <c r="F22">
-        <v>28.52488977740487</v>
+        <v>28.59610394458697</v>
       </c>
       <c r="G22">
         <v>1.872340425531915</v>
@@ -13470,10 +13470,10 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="E23">
-        <v>26.78863894519178</v>
+        <v>26.72970131572011</v>
       </c>
       <c r="F23">
-        <v>28.74583572821096</v>
+        <v>28.78635625114225</v>
       </c>
       <c r="G23">
         <v>1.955555555555555</v>
@@ -13493,10 +13493,10 @@
         <v>0.5113636363636364</v>
       </c>
       <c r="E24">
-        <v>26.91240140597282</v>
+        <v>26.873626142601</v>
       </c>
       <c r="F24">
-        <v>28.88770605278859</v>
+        <v>28.96800555864482</v>
       </c>
       <c r="G24">
         <v>2.046511627906977</v>
@@ -13516,10 +13516,10 @@
         <v>0.5340909090909091</v>
       </c>
       <c r="E25">
-        <v>27.05582235319984</v>
+        <v>27.04516388649581</v>
       </c>
       <c r="F25">
-        <v>29.15239541619344</v>
+        <v>29.15059726194525</v>
       </c>
       <c r="G25">
         <v>2.146341463414634</v>
@@ -13539,10 +13539,10 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="E26">
-        <v>27.23792705152808</v>
+        <v>27.21555462700928</v>
       </c>
       <c r="F26">
-        <v>29.31965301098687</v>
+        <v>29.31176539868435</v>
       </c>
       <c r="G26">
         <v>2.256410256410256</v>
@@ -13562,10 +13562,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="E27">
-        <v>27.4428154628917</v>
+        <v>27.40367633671986</v>
       </c>
       <c r="F27">
-        <v>29.55711574490805</v>
+        <v>29.47340346673314</v>
       </c>
       <c r="G27">
         <v>2.378378378378379</v>
@@ -13585,10 +13585,10 @@
         <v>0.6022727272727273</v>
       </c>
       <c r="E28">
-        <v>27.61543715474504</v>
+        <v>27.55453311989899</v>
       </c>
       <c r="F28">
-        <v>29.832037217408</v>
+        <v>29.75587351129556</v>
       </c>
       <c r="G28">
         <v>2.514285714285714</v>
@@ -13608,10 +13608,10 @@
         <v>0.625</v>
       </c>
       <c r="E29">
-        <v>27.772838789026</v>
+        <v>27.76042430621496</v>
       </c>
       <c r="F29">
-        <v>30.02979130963584</v>
+        <v>29.99284845623493</v>
       </c>
       <c r="G29">
         <v>2.666666666666667</v>
@@ -13631,10 +13631,10 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="E30">
-        <v>27.94016068349154</v>
+        <v>27.93914237306455</v>
       </c>
       <c r="F30">
-        <v>30.19535821030922</v>
+        <v>30.19258250150548</v>
       </c>
       <c r="G30">
         <v>2.838709677419355</v>
@@ -13654,10 +13654,10 @@
         <v>0.6704545454545454</v>
       </c>
       <c r="E31">
-        <v>28.13107402870638</v>
+        <v>28.14077379431372</v>
       </c>
       <c r="F31">
-        <v>30.47065973926536</v>
+        <v>30.49382193440961</v>
       </c>
       <c r="G31">
         <v>3.03448275862069</v>
@@ -13677,10 +13677,10 @@
         <v>0.6931818181818182</v>
       </c>
       <c r="E32">
-        <v>28.3118821975761</v>
+        <v>28.34566386396613</v>
       </c>
       <c r="F32">
-        <v>30.74869184354256</v>
+        <v>30.82514861696702</v>
       </c>
       <c r="G32">
         <v>3.25925925925926</v>
@@ -13700,10 +13700,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="E33">
-        <v>28.54220306873226</v>
+        <v>28.50972123023665</v>
       </c>
       <c r="F33">
-        <v>31.08803292935643</v>
+        <v>31.08854397334711</v>
       </c>
       <c r="G33">
         <v>3.52</v>
@@ -13723,10 +13723,10 @@
         <v>0.7386363636363636</v>
       </c>
       <c r="E34">
-        <v>28.83209445657626</v>
+        <v>28.80736816009635</v>
       </c>
       <c r="F34">
-        <v>31.42391614100424</v>
+        <v>31.33368830203319</v>
       </c>
       <c r="G34">
         <v>3.826086956521739</v>
@@ -13746,10 +13746,10 @@
         <v>0.7613636363636364</v>
       </c>
       <c r="E35">
-        <v>29.03295508120146</v>
+        <v>28.96047100591012</v>
       </c>
       <c r="F35">
-        <v>31.70507985125537</v>
+        <v>31.68524631121343</v>
       </c>
       <c r="G35">
         <v>4.190476190476191</v>
@@ -13769,10 +13769,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="E36">
-        <v>29.26277640399573</v>
+        <v>29.19289567813553</v>
       </c>
       <c r="F36">
-        <v>32.10644215583908</v>
+        <v>32.10842944901136</v>
       </c>
       <c r="G36">
         <v>4.63157894736842</v>
@@ -13792,10 +13792,10 @@
         <v>0.8068181818181818</v>
       </c>
       <c r="E37">
-        <v>29.51843921109408</v>
+        <v>29.50196519115671</v>
       </c>
       <c r="F37">
-        <v>32.52382254347282</v>
+        <v>32.61305209416242</v>
       </c>
       <c r="G37">
         <v>5.176470588235293</v>
@@ -13815,10 +13815,10 @@
         <v>0.8295454545454546</v>
       </c>
       <c r="E38">
-        <v>29.85078222849231</v>
+        <v>29.82187792675854</v>
       </c>
       <c r="F38">
-        <v>33.04988704246072</v>
+        <v>33.08123446174953</v>
       </c>
       <c r="G38">
         <v>5.866666666666668</v>
@@ -13838,10 +13838,10 @@
         <v>0.8522727272727273</v>
       </c>
       <c r="E39">
-        <v>30.16871710026701</v>
+        <v>30.07136543926921</v>
       </c>
       <c r="F39">
-        <v>33.70474445636749</v>
+        <v>33.71975873316936</v>
       </c>
       <c r="G39">
         <v>6.76923076923077</v>
@@ -13861,10 +13861,10 @@
         <v>0.875</v>
       </c>
       <c r="E40">
-        <v>30.51348731858739</v>
+        <v>30.42187798988935</v>
       </c>
       <c r="F40">
-        <v>34.41716899426323</v>
+        <v>34.45086342941379</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -13884,10 +13884,10 @@
         <v>0.8977272727272727</v>
       </c>
       <c r="E41">
-        <v>30.93804512403628</v>
+        <v>30.76627354543169</v>
       </c>
       <c r="F41">
-        <v>35.11395655393179</v>
+        <v>35.22160975374625</v>
       </c>
       <c r="G41">
         <v>9.777777777777775</v>
@@ -13907,10 +13907,10 @@
         <v>0.9204545454545454</v>
       </c>
       <c r="E42">
-        <v>31.39754682964726</v>
+        <v>31.18718273556802</v>
       </c>
       <c r="F42">
-        <v>36.3132797714195</v>
+        <v>36.07048705557829</v>
       </c>
       <c r="G42">
         <v>12.57142857142857</v>
@@ -13930,10 +13930,10 @@
         <v>0.9431818181818182</v>
       </c>
       <c r="E43">
-        <v>31.89313504705011</v>
+        <v>32.00030736119831</v>
       </c>
       <c r="F43">
-        <v>37.6877545383441</v>
+        <v>37.20249154260474</v>
       </c>
       <c r="G43">
         <v>17.60000000000002</v>
@@ -13953,10 +13953,10 @@
         <v>0.9659090909090909</v>
       </c>
       <c r="E44">
-        <v>32.70380746318065</v>
+        <v>32.71665732900168</v>
       </c>
       <c r="F44">
-        <v>39.87200151183106</v>
+        <v>39.44808725255108</v>
       </c>
       <c r="G44">
         <v>29.33333333333336</v>
@@ -13976,10 +13976,10 @@
         <v>0.9886363636363636</v>
       </c>
       <c r="E45">
-        <v>34.04866814742454</v>
+        <v>33.8675561560246</v>
       </c>
       <c r="F45">
-        <v>45.01251970475064</v>
+        <v>43.70208605826546</v>
       </c>
       <c r="G45">
         <v>88.00000000000009</v>
